--- a/evolution_coronavirus.xlsx
+++ b/evolution_coronavirus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/Extremadura/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBEF2E1-FAE1-6B40-94DE-B0472A952D8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6A7777-565C-D244-994E-2735FCC4F076}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{1AB0A3F3-C4EC-2847-A999-E7691A276297}"/>
+    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{1AB0A3F3-C4EC-2847-A999-E7691A276297}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD3C780-211D-6A4A-8E34-F58EFCCD0A14}">
   <dimension ref="A1:AQ375"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3989,11 +3989,11 @@
         <v>41</v>
       </c>
       <c r="AF25" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="7">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="37"/>
@@ -4005,11 +4005,11 @@
       </c>
       <c r="AJ25" s="6">
         <f t="shared" si="39"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK25" s="7">
         <f t="shared" si="40"/>
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG26" s="7">
         <f t="shared" ref="AG26" si="56">SUM(AG25+AF26)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" ref="AH26" si="57">SUM(B26+F26+J26+N26+R26+V26+Z26+AD26)</f>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="AK26" s="7">
         <f t="shared" ref="AK26" si="60">SUM(E26+I26+M26+Q26+U26+Y26+AC26+AG26)</f>
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="AG27" s="7">
         <f t="shared" ref="AG27" si="76">SUM(AG26+AF27)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" ref="AH27" si="77">SUM(B27+F27+J27+N27+R27+V27+Z27+AD27)</f>
@@ -4275,10 +4275,142 @@
       </c>
       <c r="AK27" s="7">
         <f t="shared" ref="AK27" si="80">SUM(E27+I27+M27+Q27+U27+Y27+AC27+AG27)</f>
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="25">
+        <v>43918</v>
+      </c>
+      <c r="B28" s="3">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" ref="C28" si="81">SUM(C27+B28)</f>
+        <v>237</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" ref="E28" si="82">SUM(E27+D28)</f>
+        <v>32</v>
+      </c>
+      <c r="F28" s="3">
+        <v>16</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" ref="G28" si="83">SUM(G27+F28)</f>
+        <v>96</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" ref="I28" si="84">SUM(I27+H28)</f>
+        <v>24</v>
+      </c>
+      <c r="J28" s="3">
+        <v>8</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" ref="K28" si="85">SUM(K27+J28)</f>
+        <v>85</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <f t="shared" ref="M28" si="86">SUM(M27+L28)</f>
+        <v>27</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" ref="O28" si="87">SUM(O27+N28)</f>
+        <v>19</v>
+      </c>
+      <c r="P28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="7">
+        <f t="shared" ref="Q28" si="88">SUM(Q27+P28)</f>
+        <v>12</v>
+      </c>
+      <c r="R28" s="3">
+        <v>88</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" ref="S28" si="89">SUM(S27+R28)</f>
+        <v>708</v>
+      </c>
+      <c r="T28" s="6">
+        <v>3</v>
+      </c>
+      <c r="U28" s="7">
+        <f t="shared" ref="U28" si="90">SUM(U27+T28)</f>
+        <v>75</v>
+      </c>
+      <c r="V28" s="3">
+        <v>9</v>
+      </c>
+      <c r="W28" s="5">
+        <f t="shared" ref="W28" si="91">SUM(W27+V28)</f>
+        <v>38</v>
+      </c>
+      <c r="X28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="7">
+        <f t="shared" ref="Y28" si="92">SUM(Y27+X28)</f>
+        <v>12</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="5">
+        <f t="shared" ref="AA28" si="93">SUM(AA27+Z28)</f>
+        <v>124</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="7">
+        <f t="shared" ref="AC28" si="94">SUM(AC27+AB28)</f>
+        <v>51</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>16</v>
+      </c>
+      <c r="AE28" s="5">
+        <f t="shared" ref="AE28" si="95">SUM(AE27+AD28)</f>
+        <v>87</v>
+      </c>
+      <c r="AF28" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="7">
+        <f t="shared" ref="AG28" si="96">SUM(AG27+AF28)</f>
+        <v>5</v>
+      </c>
+      <c r="AH28" s="8">
+        <f t="shared" ref="AH28" si="97">SUM(B28+F28+J28+N28+R28+V28+Z28+AD28)</f>
+        <v>163</v>
+      </c>
+      <c r="AI28" s="5">
+        <f t="shared" ref="AI28" si="98">SUM(AI27+AH28)</f>
+        <v>1394</v>
+      </c>
+      <c r="AJ28" s="6">
+        <f t="shared" ref="AJ28" si="99">SUM(D28+L28+P28+T28+X28+AB28+AF28)</f>
+        <v>8</v>
+      </c>
+      <c r="AK28" s="7">
+        <f t="shared" ref="AK28" si="100">SUM(E28+I28+M28+Q28+U28+Y28+AC28+AG28)</f>
+        <v>238</v>
+      </c>
+    </row>
     <row r="29" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/evolution_coronavirus.xlsx
+++ b/evolution_coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6A7777-565C-D244-994E-2735FCC4F076}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B055284-B620-0546-83B7-4E40D11CD439}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{1AB0A3F3-C4EC-2847-A999-E7691A276297}"/>
+    <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16600" xr2:uid="{1AB0A3F3-C4EC-2847-A999-E7691A276297}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD3C780-211D-6A4A-8E34-F58EFCCD0A14}">
   <dimension ref="A1:AQ375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI28" sqref="AI28"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK29" sqref="AK29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4332,11 +4332,11 @@
         <v>19</v>
       </c>
       <c r="P28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="7">
         <f t="shared" ref="Q28" si="88">SUM(Q27+P28)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R28" s="3">
         <v>88</v>
@@ -4404,14 +4404,146 @@
       </c>
       <c r="AJ28" s="6">
         <f t="shared" ref="AJ28" si="99">SUM(D28+L28+P28+T28+X28+AB28+AF28)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK28" s="7">
         <f t="shared" ref="AK28" si="100">SUM(E28+I28+M28+Q28+U28+Y28+AC28+AG28)</f>
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25">
+        <v>43919</v>
+      </c>
+      <c r="B29" s="3">
+        <v>17</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" ref="C29" si="101">SUM(C28+B29)</f>
+        <v>254</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" ref="E29" si="102">SUM(E28+D29)</f>
+        <v>32</v>
+      </c>
+      <c r="F29" s="3">
+        <v>6</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" ref="G29" si="103">SUM(G28+F29)</f>
+        <v>102</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" ref="I29" si="104">SUM(I28+H29)</f>
+        <v>25</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" ref="K29" si="105">SUM(K28+J29)</f>
+        <v>86</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <f t="shared" ref="M29" si="106">SUM(M28+L29)</f>
+        <v>27</v>
+      </c>
+      <c r="N29" s="3">
+        <v>4</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" ref="O29" si="107">SUM(O28+N29)</f>
+        <v>23</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7">
+        <f t="shared" ref="Q29" si="108">SUM(Q28+P29)</f>
+        <v>11</v>
+      </c>
+      <c r="R29" s="3">
+        <v>20</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" ref="S29" si="109">SUM(S28+R29)</f>
+        <v>728</v>
+      </c>
+      <c r="T29" s="6">
+        <v>0</v>
+      </c>
+      <c r="U29" s="7">
+        <f t="shared" ref="U29" si="110">SUM(U28+T29)</f>
+        <v>75</v>
+      </c>
+      <c r="V29" s="3">
+        <v>4</v>
+      </c>
+      <c r="W29" s="5">
+        <f t="shared" ref="W29" si="111">SUM(W28+V29)</f>
+        <v>42</v>
+      </c>
+      <c r="X29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="7">
+        <f t="shared" ref="Y29" si="112">SUM(Y28+X29)</f>
+        <v>12</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="5">
+        <f t="shared" ref="AA29" si="113">SUM(AA28+Z29)</f>
+        <v>126</v>
+      </c>
+      <c r="AB29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="7">
+        <f t="shared" ref="AC29" si="114">SUM(AC28+AB29)</f>
+        <v>52</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="5">
+        <f t="shared" ref="AE29" si="115">SUM(AE28+AD29)</f>
+        <v>95</v>
+      </c>
+      <c r="AF29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="7">
+        <f t="shared" ref="AG29" si="116">SUM(AG28+AF29)</f>
+        <v>5</v>
+      </c>
+      <c r="AH29" s="8">
+        <f t="shared" ref="AH29" si="117">SUM(B29+F29+J29+N29+R29+V29+Z29+AD29)</f>
+        <v>62</v>
+      </c>
+      <c r="AI29" s="5">
+        <f t="shared" ref="AI29" si="118">SUM(AI28+AH29)</f>
+        <v>1456</v>
+      </c>
+      <c r="AJ29" s="6">
+        <f t="shared" ref="AJ29" si="119">SUM(D29+L29+P29+T29+X29+AB29+AF29)</f>
+        <v>1</v>
+      </c>
+      <c r="AK29" s="7">
+        <f t="shared" ref="AK29" si="120">SUM(E29+I29+M29+Q29+U29+Y29+AC29+AG29)</f>
+        <v>239</v>
+      </c>
+    </row>
     <row r="30" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/evolution_coronavirus.xlsx
+++ b/evolution_coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B055284-B620-0546-83B7-4E40D11CD439}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5196E499-7886-3640-A47D-A2FB45FC5A24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16600" xr2:uid="{1AB0A3F3-C4EC-2847-A999-E7691A276297}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1AB0A3F3-C4EC-2847-A999-E7691A276297}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -651,7 +651,7 @@
   <dimension ref="A1:AQ375"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK29" sqref="AK29"/>
+      <selection activeCell="AJ33" sqref="AJ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4544,25 +4544,553 @@
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25">
+        <v>43920</v>
+      </c>
+      <c r="B30" s="3">
+        <v>25</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" ref="C30" si="121">SUM(C29+B30)</f>
+        <v>279</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" ref="E30" si="122">SUM(E29+D30)</f>
+        <v>34</v>
+      </c>
+      <c r="F30" s="3">
+        <v>6</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" ref="G30" si="123">SUM(G29+F30)</f>
+        <v>108</v>
+      </c>
+      <c r="H30" s="6">
+        <v>-9</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" ref="I30" si="124">SUM(I29+H30)</f>
+        <v>16</v>
+      </c>
+      <c r="J30" s="3">
+        <v>12</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" ref="K30" si="125">SUM(K29+J30)</f>
+        <v>98</v>
+      </c>
+      <c r="L30" s="6">
+        <v>3</v>
+      </c>
+      <c r="M30" s="7">
+        <f t="shared" ref="M30" si="126">SUM(M29+L30)</f>
+        <v>30</v>
+      </c>
+      <c r="N30" s="3">
+        <v>7</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" ref="O30" si="127">SUM(O29+N30)</f>
+        <v>30</v>
+      </c>
+      <c r="P30" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="7">
+        <f t="shared" ref="Q30" si="128">SUM(Q29+P30)</f>
+        <v>12</v>
+      </c>
+      <c r="R30" s="3">
+        <v>24</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" ref="S30" si="129">SUM(S29+R30)</f>
+        <v>752</v>
+      </c>
+      <c r="T30" s="6">
+        <v>3</v>
+      </c>
+      <c r="U30" s="7">
+        <f t="shared" ref="U30" si="130">SUM(U29+T30)</f>
+        <v>78</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="5">
+        <f t="shared" ref="W30" si="131">SUM(W29+V30)</f>
+        <v>42</v>
+      </c>
+      <c r="X30" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="7">
+        <f t="shared" ref="Y30" si="132">SUM(Y29+X30)</f>
+        <v>13</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA30" s="5">
+        <f t="shared" ref="AA30" si="133">SUM(AA29+Z30)</f>
+        <v>151</v>
+      </c>
+      <c r="AB30" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="7">
+        <f t="shared" ref="AC30" si="134">SUM(AC29+AB30)</f>
+        <v>56</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE30" s="5">
+        <f t="shared" ref="AE30" si="135">SUM(AE29+AD30)</f>
+        <v>100</v>
+      </c>
+      <c r="AF30" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="7">
+        <f t="shared" ref="AG30" si="136">SUM(AG29+AF30)</f>
+        <v>5</v>
+      </c>
+      <c r="AH30" s="8">
+        <f t="shared" ref="AH30" si="137">SUM(B30+F30+J30+N30+R30+V30+Z30+AD30)</f>
+        <v>104</v>
+      </c>
+      <c r="AI30" s="5">
+        <f t="shared" ref="AI30" si="138">SUM(AI29+AH30)</f>
+        <v>1560</v>
+      </c>
+      <c r="AJ30" s="6">
+        <f t="shared" ref="AJ30" si="139">SUM(D30+L30+P30+T30+X30+AB30+AF30)</f>
+        <v>14</v>
+      </c>
+      <c r="AK30" s="7">
+        <f t="shared" ref="AK30" si="140">SUM(E30+I30+M30+Q30+U30+Y30+AC30+AG30)</f>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25">
+        <v>43921</v>
+      </c>
+      <c r="B31" s="3">
+        <v>23</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" ref="C31" si="141">SUM(C30+B31)</f>
+        <v>302</v>
+      </c>
+      <c r="D31" s="6">
+        <v>20</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" ref="E31" si="142">SUM(E30+D31)</f>
+        <v>54</v>
+      </c>
+      <c r="F31" s="3">
+        <v>16</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" ref="G31" si="143">SUM(G30+F31)</f>
+        <v>124</v>
+      </c>
+      <c r="H31" s="6">
+        <v>-6</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" ref="I31" si="144">SUM(I30+H31)</f>
+        <v>10</v>
+      </c>
+      <c r="J31" s="3">
+        <v>7</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" ref="K31" si="145">SUM(K30+J31)</f>
+        <v>105</v>
+      </c>
+      <c r="L31" s="6">
+        <v>2</v>
+      </c>
+      <c r="M31" s="7">
+        <f t="shared" ref="M31" si="146">SUM(M30+L31)</f>
+        <v>32</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" ref="O31" si="147">SUM(O30+N31)</f>
+        <v>30</v>
+      </c>
+      <c r="P31" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="7">
+        <f t="shared" ref="Q31" si="148">SUM(Q30+P31)</f>
+        <v>13</v>
+      </c>
+      <c r="R31" s="3">
+        <v>3</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" ref="S31" si="149">SUM(S30+R31)</f>
+        <v>755</v>
+      </c>
+      <c r="T31" s="6">
+        <v>0</v>
+      </c>
+      <c r="U31" s="7">
+        <f t="shared" ref="U31" si="150">SUM(U30+T31)</f>
+        <v>78</v>
+      </c>
+      <c r="V31" s="3">
+        <v>2</v>
+      </c>
+      <c r="W31" s="5">
+        <f t="shared" ref="W31" si="151">SUM(W30+V31)</f>
+        <v>44</v>
+      </c>
+      <c r="X31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="7">
+        <f t="shared" ref="Y31" si="152">SUM(Y30+X31)</f>
+        <v>13</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>7</v>
+      </c>
+      <c r="AA31" s="5">
+        <f t="shared" ref="AA31" si="153">SUM(AA30+Z31)</f>
+        <v>158</v>
+      </c>
+      <c r="AB31" s="6">
+        <v>9</v>
+      </c>
+      <c r="AC31" s="7">
+        <f t="shared" ref="AC31" si="154">SUM(AC30+AB31)</f>
+        <v>65</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE31" s="5">
+        <f t="shared" ref="AE31" si="155">SUM(AE30+AD31)</f>
+        <v>110</v>
+      </c>
+      <c r="AF31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="7">
+        <f t="shared" ref="AG31" si="156">SUM(AG30+AF31)</f>
+        <v>6</v>
+      </c>
+      <c r="AH31" s="8">
+        <f t="shared" ref="AH31" si="157">SUM(B31+F31+J31+N31+R31+V31+Z31+AD31)</f>
+        <v>68</v>
+      </c>
+      <c r="AI31" s="5">
+        <f t="shared" ref="AI31" si="158">SUM(AI30+AH31)</f>
+        <v>1628</v>
+      </c>
+      <c r="AJ31" s="6">
+        <f t="shared" ref="AJ31" si="159">SUM(D31+L31+P31+T31+X31+AB31+AF31)</f>
+        <v>33</v>
+      </c>
+      <c r="AK31" s="7">
+        <f t="shared" ref="AK31" si="160">SUM(E31+I31+M31+Q31+U31+Y31+AC31+AG31)</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25">
+        <v>43922</v>
+      </c>
+      <c r="B32" s="3">
+        <v>9</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" ref="C32:C33" si="161">SUM(C31+B32)</f>
+        <v>311</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" ref="E32:E33" si="162">SUM(E31+D32)</f>
+        <v>54</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" ref="G32:G33" si="163">SUM(G31+F32)</f>
+        <v>128</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" ref="I32:I33" si="164">SUM(I31+H32)</f>
+        <v>10</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" ref="K32:K33" si="165">SUM(K31+J32)</f>
+        <v>115</v>
+      </c>
+      <c r="L32" s="6">
+        <v>3</v>
+      </c>
+      <c r="M32" s="7">
+        <f t="shared" ref="M32:M33" si="166">SUM(M31+L32)</f>
+        <v>35</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" ref="O32:O33" si="167">SUM(O31+N32)</f>
+        <v>32</v>
+      </c>
+      <c r="P32" s="6">
+        <v>-2</v>
+      </c>
+      <c r="Q32" s="7">
+        <f t="shared" ref="Q32:Q33" si="168">SUM(Q31+P32)</f>
+        <v>11</v>
+      </c>
+      <c r="R32" s="3">
+        <v>8</v>
+      </c>
+      <c r="S32" s="5">
+        <f t="shared" ref="S32:S33" si="169">SUM(S31+R32)</f>
+        <v>763</v>
+      </c>
+      <c r="T32" s="6">
+        <v>0</v>
+      </c>
+      <c r="U32" s="7">
+        <f t="shared" ref="U32:U33" si="170">SUM(U31+T32)</f>
+        <v>78</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1</v>
+      </c>
+      <c r="W32" s="5">
+        <f t="shared" ref="W32:W33" si="171">SUM(W31+V32)</f>
+        <v>45</v>
+      </c>
+      <c r="X32" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="7">
+        <f t="shared" ref="Y32:Y33" si="172">SUM(Y31+X32)</f>
+        <v>14</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA32" s="5">
+        <f t="shared" ref="AA32:AA33" si="173">SUM(AA31+Z32)</f>
+        <v>170</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="7">
+        <f t="shared" ref="AC32:AC33" si="174">SUM(AC31+AB32)</f>
+        <v>65</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE32" s="5">
+        <f t="shared" ref="AE32:AE33" si="175">SUM(AE31+AD32)</f>
+        <v>115</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="7">
+        <f t="shared" ref="AG32:AG33" si="176">SUM(AG31+AF32)</f>
+        <v>6</v>
+      </c>
+      <c r="AH32" s="8">
+        <f t="shared" ref="AH32:AH33" si="177">SUM(B32+F32+J32+N32+R32+V32+Z32+AD32)</f>
+        <v>51</v>
+      </c>
+      <c r="AI32" s="5">
+        <f t="shared" ref="AI32:AI33" si="178">SUM(AI31+AH32)</f>
+        <v>1679</v>
+      </c>
+      <c r="AJ32" s="6">
+        <f t="shared" ref="AJ32:AJ33" si="179">SUM(D32+L32+P32+T32+X32+AB32+AF32)</f>
+        <v>2</v>
+      </c>
+      <c r="AK32" s="7">
+        <f t="shared" ref="AK32:AK33" si="180">SUM(E32+I32+M32+Q32+U32+Y32+AC32+AG32)</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25">
+        <v>43923</v>
+      </c>
+      <c r="B33" s="3">
+        <v>13</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="161"/>
+        <v>324</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="162"/>
+        <v>55</v>
+      </c>
+      <c r="F33" s="3">
+        <v>13</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="163"/>
+        <v>141</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="164"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="3">
+        <v>12</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="165"/>
+        <v>127</v>
+      </c>
+      <c r="L33" s="6">
+        <v>3</v>
+      </c>
+      <c r="M33" s="7">
+        <f t="shared" si="166"/>
+        <v>38</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="167"/>
+        <v>33</v>
+      </c>
+      <c r="P33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="7">
+        <f t="shared" si="168"/>
+        <v>10</v>
+      </c>
+      <c r="R33" s="3">
+        <v>78</v>
+      </c>
+      <c r="S33" s="5">
+        <f t="shared" si="169"/>
+        <v>841</v>
+      </c>
+      <c r="T33" s="6">
+        <v>1</v>
+      </c>
+      <c r="U33" s="7">
+        <f t="shared" si="170"/>
+        <v>79</v>
+      </c>
+      <c r="V33" s="3">
+        <v>8</v>
+      </c>
+      <c r="W33" s="5">
+        <f t="shared" si="171"/>
+        <v>53</v>
+      </c>
+      <c r="X33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Y33" s="7">
+        <f t="shared" si="172"/>
+        <v>13</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA33" s="5">
+        <f t="shared" si="173"/>
+        <v>189</v>
+      </c>
+      <c r="AB33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="7">
+        <f t="shared" si="174"/>
+        <v>66</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>14</v>
+      </c>
+      <c r="AE33" s="5">
+        <f t="shared" si="175"/>
+        <v>129</v>
+      </c>
+      <c r="AF33" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG33" s="7">
+        <f t="shared" si="176"/>
+        <v>8</v>
+      </c>
+      <c r="AH33" s="8">
+        <f t="shared" si="177"/>
+        <v>158</v>
+      </c>
+      <c r="AI33" s="5">
+        <f t="shared" si="178"/>
+        <v>1837</v>
+      </c>
+      <c r="AJ33" s="6">
+        <f t="shared" si="179"/>
+        <v>6</v>
+      </c>
+      <c r="AK33" s="7">
+        <f t="shared" si="180"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="49" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="50" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="51" s="14" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/evolution_coronavirus.xlsx
+++ b/evolution_coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5196E499-7886-3640-A47D-A2FB45FC5A24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6561FF2B-5256-054A-8DF2-DBBE7E162691}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1AB0A3F3-C4EC-2847-A999-E7691A276297}"/>
+    <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16600" xr2:uid="{1AB0A3F3-C4EC-2847-A999-E7691A276297}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -334,6 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,10 +652,10 @@
   <dimension ref="A1:AQ375"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ33" sqref="AJ33"/>
+      <selection activeCell="AK38" sqref="AK38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
@@ -698,7 +699,7 @@
     <col min="43" max="43" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="30" customHeight="1" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
@@ -817,7 +818,7 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43">
       <c r="A2" s="25">
         <v>43892</v>
       </c>
@@ -950,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43">
       <c r="A3" s="25">
         <v>43893</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43">
       <c r="A4" s="25">
         <v>43894</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43">
       <c r="A5" s="25">
         <v>43895</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43">
       <c r="A6" s="25">
         <v>43896</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43">
       <c r="A7" s="25">
         <v>43897</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43">
       <c r="A8" s="25">
         <v>43898</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43">
       <c r="A9" s="25">
         <v>43899</v>
       </c>
@@ -1881,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43">
       <c r="A10" s="25">
         <v>43900</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43">
       <c r="A11" s="25">
         <v>43901</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43">
       <c r="A12" s="25">
         <v>43902</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43">
       <c r="A13" s="25">
         <v>43903</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43">
       <c r="A14" s="25">
         <v>43904</v>
       </c>
@@ -2549,7 +2550,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43">
       <c r="A15" s="25">
         <v>43905</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43">
       <c r="A16" s="25">
         <v>43906</v>
       </c>
@@ -2815,7 +2816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37">
       <c r="A17" s="25">
         <v>43907</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37">
       <c r="A18" s="25">
         <v>43908</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37">
       <c r="A19" s="25">
         <v>43909</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37">
       <c r="A20" s="25">
         <v>43910</v>
       </c>
@@ -3347,7 +3348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37">
       <c r="A21" s="25">
         <v>43911</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" s="14" customFormat="1">
       <c r="A22" s="25">
         <v>43912</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" s="14" customFormat="1">
       <c r="A23" s="25">
         <v>43913</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" s="14" customFormat="1">
       <c r="A24" s="25">
         <v>43914</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" s="14" customFormat="1">
       <c r="A25" s="25">
         <v>43915</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" s="14" customFormat="1">
       <c r="A26" s="25">
         <v>43916</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" s="14" customFormat="1">
       <c r="A27" s="25">
         <v>43917</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" s="14" customFormat="1">
       <c r="A28" s="25">
         <v>43918</v>
       </c>
@@ -4411,7 +4412,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" s="14" customFormat="1">
       <c r="A29" s="25">
         <v>43919</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" s="14" customFormat="1">
       <c r="A30" s="25">
         <v>43920</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" s="14" customFormat="1">
       <c r="A31" s="25">
         <v>43921</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" s="14" customFormat="1">
       <c r="A32" s="25">
         <v>43922</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" s="14" customFormat="1">
       <c r="A33" s="25">
         <v>43923</v>
       </c>
@@ -5076,348 +5077,1008 @@
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="290" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="291" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="292" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="293" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="294" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="295" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="296" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="297" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="298" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="299" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="300" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="301" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="302" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="303" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="304" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="305" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="306" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="307" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="308" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="309" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="310" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="311" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="312" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="313" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="314" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="315" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="316" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="317" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="318" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="319" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="320" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="321" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="322" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="323" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="324" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="325" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="326" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="327" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="328" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="329" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="330" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="331" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="332" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="333" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="334" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="335" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="336" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="337" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="338" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="339" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="340" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="341" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="342" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="343" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="344" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="345" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="346" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="347" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="348" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="349" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="350" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="351" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="352" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="353" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="354" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="355" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="356" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="357" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="358" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="359" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="360" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="361" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="362" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="363" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="364" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="365" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="366" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="367" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="368" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="369" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="370" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="371" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="372" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="373" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="374" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="375" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:37" s="14" customFormat="1">
+      <c r="A34" s="25">
+        <v>43924</v>
+      </c>
+      <c r="B34" s="3">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" ref="C34" si="181">SUM(C33+B34)</f>
+        <v>335</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" ref="E34" si="182">SUM(E33+D34)</f>
+        <v>57</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" ref="G34" si="183">SUM(G33+F34)</f>
+        <v>146</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" ref="I34" si="184">SUM(I33+H34)</f>
+        <v>11</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" ref="K34" si="185">SUM(K33+J34)</f>
+        <v>128</v>
+      </c>
+      <c r="L34" s="6">
+        <v>2</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" ref="M34" si="186">SUM(M33+L34)</f>
+        <v>40</v>
+      </c>
+      <c r="N34" s="3">
+        <v>3</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" ref="O34" si="187">SUM(O33+N34)</f>
+        <v>36</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <f t="shared" ref="Q34" si="188">SUM(Q33+P34)</f>
+        <v>10</v>
+      </c>
+      <c r="R34" s="3">
+        <v>29</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" ref="S34" si="189">SUM(S33+R34)</f>
+        <v>870</v>
+      </c>
+      <c r="T34" s="6">
+        <v>0</v>
+      </c>
+      <c r="U34" s="7">
+        <f t="shared" ref="U34" si="190">SUM(U33+T34)</f>
+        <v>79</v>
+      </c>
+      <c r="V34" s="3">
+        <v>1</v>
+      </c>
+      <c r="W34" s="5">
+        <f t="shared" ref="W34" si="191">SUM(W33+V34)</f>
+        <v>54</v>
+      </c>
+      <c r="X34" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="7">
+        <f t="shared" ref="Y34" si="192">SUM(Y33+X34)</f>
+        <v>13</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA34" s="5">
+        <f t="shared" ref="AA34" si="193">SUM(AA33+Z34)</f>
+        <v>193</v>
+      </c>
+      <c r="AB34" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="7">
+        <f t="shared" ref="AC34" si="194">SUM(AC33+AB34)</f>
+        <v>66</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE34" s="5">
+        <f t="shared" ref="AE34" si="195">SUM(AE33+AD34)</f>
+        <v>131</v>
+      </c>
+      <c r="AF34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="7">
+        <f t="shared" ref="AG34" si="196">SUM(AG33+AF34)</f>
+        <v>8</v>
+      </c>
+      <c r="AH34" s="8">
+        <f t="shared" ref="AH34" si="197">SUM(B34+F34+J34+N34+R34+V34+Z34+AD34)</f>
+        <v>56</v>
+      </c>
+      <c r="AI34" s="5">
+        <f t="shared" ref="AI34" si="198">SUM(AI33+AH34)</f>
+        <v>1893</v>
+      </c>
+      <c r="AJ34" s="6">
+        <f t="shared" ref="AJ34" si="199">SUM(D34+L34+P34+T34+X34+AB34+AF34)</f>
+        <v>4</v>
+      </c>
+      <c r="AK34" s="7">
+        <f t="shared" ref="AK34" si="200">SUM(E34+I34+M34+Q34+U34+Y34+AC34+AG34)</f>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" s="14" customFormat="1">
+      <c r="A35" s="25">
+        <v>43925</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" ref="C35:C36" si="201">SUM(C34+B35)</f>
+        <v>338</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" ref="E35:E36" si="202">SUM(E34+D35)</f>
+        <v>58</v>
+      </c>
+      <c r="F35" s="3">
+        <v>9</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" ref="G35:G36" si="203">SUM(G34+F35)</f>
+        <v>155</v>
+      </c>
+      <c r="H35" s="6">
+        <v>3</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" ref="I35:I36" si="204">SUM(I34+H35)</f>
+        <v>14</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" ref="K35:K36" si="205">SUM(K34+J35)</f>
+        <v>131</v>
+      </c>
+      <c r="L35" s="6">
+        <v>1</v>
+      </c>
+      <c r="M35" s="7">
+        <f t="shared" ref="M35:M36" si="206">SUM(M34+L35)</f>
+        <v>41</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2</v>
+      </c>
+      <c r="O35" s="5">
+        <f t="shared" ref="O35:O36" si="207">SUM(O34+N35)</f>
+        <v>38</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7">
+        <f t="shared" ref="Q35:Q36" si="208">SUM(Q34+P35)</f>
+        <v>10</v>
+      </c>
+      <c r="R35" s="3">
+        <v>45</v>
+      </c>
+      <c r="S35" s="5">
+        <f t="shared" ref="S35:S36" si="209">SUM(S34+R35)</f>
+        <v>915</v>
+      </c>
+      <c r="T35" s="6">
+        <v>0</v>
+      </c>
+      <c r="U35" s="7">
+        <f t="shared" ref="U35:U36" si="210">SUM(U34+T35)</f>
+        <v>79</v>
+      </c>
+      <c r="V35" s="3">
+        <v>2</v>
+      </c>
+      <c r="W35" s="5">
+        <f t="shared" ref="W35:W36" si="211">SUM(W34+V35)</f>
+        <v>56</v>
+      </c>
+      <c r="X35" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="7">
+        <f t="shared" ref="Y35:Y36" si="212">SUM(Y34+X35)</f>
+        <v>13</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA35" s="5">
+        <f t="shared" ref="AA35:AA36" si="213">SUM(AA34+Z35)</f>
+        <v>204</v>
+      </c>
+      <c r="AB35" s="26">
+        <v>2</v>
+      </c>
+      <c r="AC35" s="7">
+        <f t="shared" ref="AC35:AC36" si="214">SUM(AC34+AB35)</f>
+        <v>68</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>11</v>
+      </c>
+      <c r="AE35" s="5">
+        <f t="shared" ref="AE35:AE36" si="215">SUM(AE34+AD35)</f>
+        <v>142</v>
+      </c>
+      <c r="AF35" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG35" s="7">
+        <f t="shared" ref="AG35:AG36" si="216">SUM(AG34+AF35)</f>
+        <v>11</v>
+      </c>
+      <c r="AH35" s="8">
+        <f t="shared" ref="AH35:AH36" si="217">SUM(B35+F35+J35+N35+R35+V35+Z35+AD35)</f>
+        <v>86</v>
+      </c>
+      <c r="AI35" s="5">
+        <f t="shared" ref="AI35:AI36" si="218">SUM(AI34+AH35)</f>
+        <v>1979</v>
+      </c>
+      <c r="AJ35" s="6">
+        <f t="shared" ref="AJ35:AJ36" si="219">SUM(D35+L35+P35+T35+X35+AB35+AF35)</f>
+        <v>7</v>
+      </c>
+      <c r="AK35" s="7">
+        <f t="shared" ref="AK35:AK36" si="220">SUM(E35+I35+M35+Q35+U35+Y35+AC35+AG35)</f>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" s="14" customFormat="1">
+      <c r="A36" s="25">
+        <v>43926</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="201"/>
+        <v>339</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="202"/>
+        <v>58</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="203"/>
+        <v>160</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="204"/>
+        <v>14</v>
+      </c>
+      <c r="J36" s="3">
+        <v>4</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="205"/>
+        <v>135</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <f t="shared" si="206"/>
+        <v>41</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="207"/>
+        <v>38</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="7">
+        <f t="shared" si="208"/>
+        <v>10</v>
+      </c>
+      <c r="R36" s="3">
+        <v>41</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" si="209"/>
+        <v>956</v>
+      </c>
+      <c r="T36" s="6">
+        <v>0</v>
+      </c>
+      <c r="U36" s="7">
+        <f t="shared" si="210"/>
+        <v>79</v>
+      </c>
+      <c r="V36" s="3">
+        <v>1</v>
+      </c>
+      <c r="W36" s="5">
+        <f t="shared" si="211"/>
+        <v>57</v>
+      </c>
+      <c r="X36" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="7">
+        <f t="shared" si="212"/>
+        <v>13</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA36" s="5">
+        <f t="shared" si="213"/>
+        <v>214</v>
+      </c>
+      <c r="AB36" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="7">
+        <f t="shared" si="214"/>
+        <v>68</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE36" s="5">
+        <f t="shared" si="215"/>
+        <v>148</v>
+      </c>
+      <c r="AF36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="7">
+        <f t="shared" si="216"/>
+        <v>11</v>
+      </c>
+      <c r="AH36" s="8">
+        <f t="shared" si="217"/>
+        <v>68</v>
+      </c>
+      <c r="AI36" s="5">
+        <f t="shared" si="218"/>
+        <v>2047</v>
+      </c>
+      <c r="AJ36" s="6">
+        <f t="shared" si="219"/>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="7">
+        <f t="shared" si="220"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" s="14" customFormat="1">
+      <c r="A37" s="25">
+        <v>43927</v>
+      </c>
+      <c r="B37" s="3">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" ref="C37" si="221">SUM(C36+B37)</f>
+        <v>348</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" ref="E37" si="222">SUM(E36+D37)</f>
+        <v>58</v>
+      </c>
+      <c r="F37" s="3">
+        <v>6</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" ref="G37" si="223">SUM(G36+F37)</f>
+        <v>166</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" ref="I37" si="224">SUM(I36+H37)</f>
+        <v>14</v>
+      </c>
+      <c r="J37" s="3">
+        <v>2</v>
+      </c>
+      <c r="K37" s="5">
+        <f t="shared" ref="K37" si="225">SUM(K36+J37)</f>
+        <v>137</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <f t="shared" ref="M37" si="226">SUM(M36+L37)</f>
+        <v>41</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" ref="O37" si="227">SUM(O36+N37)</f>
+        <v>38</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="7">
+        <f t="shared" ref="Q37" si="228">SUM(Q36+P37)</f>
+        <v>10</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0</v>
+      </c>
+      <c r="S37" s="5">
+        <f t="shared" ref="S37" si="229">SUM(S36+R37)</f>
+        <v>956</v>
+      </c>
+      <c r="T37" s="6">
+        <v>1</v>
+      </c>
+      <c r="U37" s="7">
+        <f t="shared" ref="U37" si="230">SUM(U36+T37)</f>
+        <v>80</v>
+      </c>
+      <c r="V37" s="3">
+        <v>3</v>
+      </c>
+      <c r="W37" s="5">
+        <f t="shared" ref="W37" si="231">SUM(W36+V37)</f>
+        <v>60</v>
+      </c>
+      <c r="X37" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="7">
+        <f t="shared" ref="Y37" si="232">SUM(Y36+X37)</f>
+        <v>14</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="5">
+        <f t="shared" ref="AA37" si="233">SUM(AA36+Z37)</f>
+        <v>215</v>
+      </c>
+      <c r="AB37" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="7">
+        <f t="shared" ref="AC37" si="234">SUM(AC36+AB37)</f>
+        <v>69</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="5">
+        <f t="shared" ref="AE37" si="235">SUM(AE36+AD37)</f>
+        <v>148</v>
+      </c>
+      <c r="AF37" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="7">
+        <f t="shared" ref="AG37" si="236">SUM(AG36+AF37)</f>
+        <v>12</v>
+      </c>
+      <c r="AH37" s="8">
+        <f t="shared" ref="AH37" si="237">SUM(B37+F37+J37+N37+R37+V37+Z37+AD37)</f>
+        <v>21</v>
+      </c>
+      <c r="AI37" s="5">
+        <f t="shared" ref="AI37" si="238">SUM(AI36+AH37)</f>
+        <v>2068</v>
+      </c>
+      <c r="AJ37" s="6">
+        <f t="shared" ref="AJ37" si="239">SUM(D37+L37+P37+T37+X37+AB37+AF37)</f>
+        <v>4</v>
+      </c>
+      <c r="AK37" s="7">
+        <f t="shared" ref="AK37" si="240">SUM(E37+I37+M37+Q37+U37+Y37+AC37+AG37)</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" s="14" customFormat="1">
+      <c r="A38" s="25">
+        <v>43928</v>
+      </c>
+      <c r="B38" s="3">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" ref="C38" si="241">SUM(C37+B38)</f>
+        <v>351</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" ref="E38" si="242">SUM(E37+D38)</f>
+        <v>59</v>
+      </c>
+      <c r="F38" s="3">
+        <v>9</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" ref="G38" si="243">SUM(G37+F38)</f>
+        <v>175</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" ref="I38" si="244">SUM(I37+H38)</f>
+        <v>15</v>
+      </c>
+      <c r="J38" s="3">
+        <v>6</v>
+      </c>
+      <c r="K38" s="5">
+        <f t="shared" ref="K38" si="245">SUM(K37+J38)</f>
+        <v>143</v>
+      </c>
+      <c r="L38" s="6">
+        <v>1</v>
+      </c>
+      <c r="M38" s="7">
+        <f t="shared" ref="M38" si="246">SUM(M37+L38)</f>
+        <v>42</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" ref="O38" si="247">SUM(O37+N38)</f>
+        <v>39</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="7">
+        <f t="shared" ref="Q38" si="248">SUM(Q37+P38)</f>
+        <v>10</v>
+      </c>
+      <c r="R38" s="3">
+        <v>20</v>
+      </c>
+      <c r="S38" s="5">
+        <f t="shared" ref="S38" si="249">SUM(S37+R38)</f>
+        <v>976</v>
+      </c>
+      <c r="T38" s="6">
+        <v>0</v>
+      </c>
+      <c r="U38" s="7">
+        <f t="shared" ref="U38" si="250">SUM(U37+T38)</f>
+        <v>80</v>
+      </c>
+      <c r="V38" s="3">
+        <v>0</v>
+      </c>
+      <c r="W38" s="5">
+        <f t="shared" ref="W38" si="251">SUM(W37+V38)</f>
+        <v>60</v>
+      </c>
+      <c r="X38" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="7">
+        <f t="shared" ref="Y38" si="252">SUM(Y37+X38)</f>
+        <v>14</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>8</v>
+      </c>
+      <c r="AA38" s="5">
+        <f t="shared" ref="AA38" si="253">SUM(AA37+Z38)</f>
+        <v>223</v>
+      </c>
+      <c r="AB38" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="7">
+        <f t="shared" ref="AC38" si="254">SUM(AC37+AB38)</f>
+        <v>69</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="5">
+        <f t="shared" ref="AE38" si="255">SUM(AE37+AD38)</f>
+        <v>149</v>
+      </c>
+      <c r="AF38" s="26">
+        <v>-1</v>
+      </c>
+      <c r="AG38" s="7">
+        <f t="shared" ref="AG38" si="256">SUM(AG37+AF38)</f>
+        <v>11</v>
+      </c>
+      <c r="AH38" s="8">
+        <f t="shared" ref="AH38" si="257">SUM(B38+F38+J38+N38+R38+V38+Z38+AD38)</f>
+        <v>48</v>
+      </c>
+      <c r="AI38" s="5">
+        <f t="shared" ref="AI38" si="258">SUM(AI37+AH38)</f>
+        <v>2116</v>
+      </c>
+      <c r="AJ38" s="6">
+        <f t="shared" ref="AJ38" si="259">SUM(D38+L38+P38+T38+X38+AB38+AF38)</f>
+        <v>1</v>
+      </c>
+      <c r="AK38" s="7">
+        <f t="shared" ref="AK38" si="260">SUM(E38+I38+M38+Q38+U38+Y38+AC38+AG38)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" s="14" customFormat="1"/>
+    <row r="40" spans="1:37" s="14" customFormat="1"/>
+    <row r="41" spans="1:37" s="14" customFormat="1"/>
+    <row r="42" spans="1:37" s="14" customFormat="1"/>
+    <row r="43" spans="1:37" s="14" customFormat="1"/>
+    <row r="44" spans="1:37" s="14" customFormat="1"/>
+    <row r="45" spans="1:37" s="14" customFormat="1"/>
+    <row r="46" spans="1:37" s="14" customFormat="1"/>
+    <row r="47" spans="1:37" s="14" customFormat="1"/>
+    <row r="48" spans="1:37" s="14" customFormat="1"/>
+    <row r="49" s="14" customFormat="1"/>
+    <row r="50" s="14" customFormat="1"/>
+    <row r="51" s="14" customFormat="1"/>
+    <row r="52" s="14" customFormat="1"/>
+    <row r="53" s="14" customFormat="1"/>
+    <row r="54" s="14" customFormat="1"/>
+    <row r="55" s="14" customFormat="1"/>
+    <row r="56" s="14" customFormat="1"/>
+    <row r="57" s="14" customFormat="1"/>
+    <row r="58" s="14" customFormat="1"/>
+    <row r="59" s="14" customFormat="1"/>
+    <row r="60" s="14" customFormat="1"/>
+    <row r="61" s="14" customFormat="1"/>
+    <row r="62" s="14" customFormat="1"/>
+    <row r="63" s="14" customFormat="1"/>
+    <row r="64" s="14" customFormat="1"/>
+    <row r="65" s="14" customFormat="1"/>
+    <row r="66" s="14" customFormat="1"/>
+    <row r="67" s="14" customFormat="1"/>
+    <row r="68" s="14" customFormat="1"/>
+    <row r="69" s="14" customFormat="1"/>
+    <row r="70" s="14" customFormat="1"/>
+    <row r="71" s="14" customFormat="1"/>
+    <row r="72" s="14" customFormat="1"/>
+    <row r="73" s="14" customFormat="1"/>
+    <row r="74" s="14" customFormat="1"/>
+    <row r="75" s="14" customFormat="1"/>
+    <row r="76" s="14" customFormat="1"/>
+    <row r="77" s="14" customFormat="1"/>
+    <row r="78" s="14" customFormat="1"/>
+    <row r="79" s="14" customFormat="1"/>
+    <row r="80" s="14" customFormat="1"/>
+    <row r="81" s="14" customFormat="1"/>
+    <row r="82" s="14" customFormat="1"/>
+    <row r="83" s="14" customFormat="1"/>
+    <row r="84" s="14" customFormat="1"/>
+    <row r="85" s="14" customFormat="1"/>
+    <row r="86" s="14" customFormat="1"/>
+    <row r="87" s="14" customFormat="1"/>
+    <row r="88" s="14" customFormat="1"/>
+    <row r="89" s="14" customFormat="1"/>
+    <row r="90" s="14" customFormat="1"/>
+    <row r="91" s="14" customFormat="1"/>
+    <row r="92" s="14" customFormat="1"/>
+    <row r="93" s="14" customFormat="1"/>
+    <row r="94" s="14" customFormat="1"/>
+    <row r="95" s="14" customFormat="1"/>
+    <row r="96" s="14" customFormat="1"/>
+    <row r="97" s="14" customFormat="1"/>
+    <row r="98" s="14" customFormat="1"/>
+    <row r="99" s="14" customFormat="1"/>
+    <row r="100" s="14" customFormat="1"/>
+    <row r="101" s="14" customFormat="1"/>
+    <row r="102" s="14" customFormat="1"/>
+    <row r="103" s="14" customFormat="1"/>
+    <row r="104" s="14" customFormat="1"/>
+    <row r="105" s="14" customFormat="1"/>
+    <row r="106" s="14" customFormat="1"/>
+    <row r="107" s="14" customFormat="1"/>
+    <row r="108" s="14" customFormat="1"/>
+    <row r="109" s="14" customFormat="1"/>
+    <row r="110" s="14" customFormat="1"/>
+    <row r="111" s="14" customFormat="1"/>
+    <row r="112" s="14" customFormat="1"/>
+    <row r="113" s="14" customFormat="1"/>
+    <row r="114" s="14" customFormat="1"/>
+    <row r="115" s="14" customFormat="1"/>
+    <row r="116" s="14" customFormat="1"/>
+    <row r="117" s="14" customFormat="1"/>
+    <row r="118" s="14" customFormat="1"/>
+    <row r="119" s="14" customFormat="1"/>
+    <row r="120" s="14" customFormat="1"/>
+    <row r="121" s="14" customFormat="1"/>
+    <row r="122" s="14" customFormat="1"/>
+    <row r="123" s="14" customFormat="1"/>
+    <row r="124" s="14" customFormat="1"/>
+    <row r="125" s="14" customFormat="1"/>
+    <row r="126" s="14" customFormat="1"/>
+    <row r="127" s="14" customFormat="1"/>
+    <row r="128" s="14" customFormat="1"/>
+    <row r="129" s="14" customFormat="1"/>
+    <row r="130" s="14" customFormat="1"/>
+    <row r="131" s="14" customFormat="1"/>
+    <row r="132" s="14" customFormat="1"/>
+    <row r="133" s="14" customFormat="1"/>
+    <row r="134" s="14" customFormat="1"/>
+    <row r="135" s="14" customFormat="1"/>
+    <row r="136" s="14" customFormat="1"/>
+    <row r="137" s="14" customFormat="1"/>
+    <row r="138" s="14" customFormat="1"/>
+    <row r="139" s="14" customFormat="1"/>
+    <row r="140" s="14" customFormat="1"/>
+    <row r="141" s="14" customFormat="1"/>
+    <row r="142" s="14" customFormat="1"/>
+    <row r="143" s="14" customFormat="1"/>
+    <row r="144" s="14" customFormat="1"/>
+    <row r="145" s="14" customFormat="1"/>
+    <row r="146" s="14" customFormat="1"/>
+    <row r="147" s="14" customFormat="1"/>
+    <row r="148" s="14" customFormat="1"/>
+    <row r="149" s="14" customFormat="1"/>
+    <row r="150" s="14" customFormat="1"/>
+    <row r="151" s="14" customFormat="1"/>
+    <row r="152" s="14" customFormat="1"/>
+    <row r="153" s="14" customFormat="1"/>
+    <row r="154" s="14" customFormat="1"/>
+    <row r="155" s="14" customFormat="1"/>
+    <row r="156" s="14" customFormat="1"/>
+    <row r="157" s="14" customFormat="1"/>
+    <row r="158" s="14" customFormat="1"/>
+    <row r="159" s="14" customFormat="1"/>
+    <row r="160" s="14" customFormat="1"/>
+    <row r="161" s="14" customFormat="1"/>
+    <row r="162" s="14" customFormat="1"/>
+    <row r="163" s="14" customFormat="1"/>
+    <row r="164" s="14" customFormat="1"/>
+    <row r="165" s="14" customFormat="1"/>
+    <row r="166" s="14" customFormat="1"/>
+    <row r="167" s="14" customFormat="1"/>
+    <row r="168" s="14" customFormat="1"/>
+    <row r="169" s="14" customFormat="1"/>
+    <row r="170" s="14" customFormat="1"/>
+    <row r="171" s="14" customFormat="1"/>
+    <row r="172" s="14" customFormat="1"/>
+    <row r="173" s="14" customFormat="1"/>
+    <row r="174" s="14" customFormat="1"/>
+    <row r="175" s="14" customFormat="1"/>
+    <row r="176" s="14" customFormat="1"/>
+    <row r="177" s="14" customFormat="1"/>
+    <row r="178" s="14" customFormat="1"/>
+    <row r="179" s="14" customFormat="1"/>
+    <row r="180" s="14" customFormat="1"/>
+    <row r="181" s="14" customFormat="1"/>
+    <row r="182" s="14" customFormat="1"/>
+    <row r="183" s="14" customFormat="1"/>
+    <row r="184" s="14" customFormat="1"/>
+    <row r="185" s="14" customFormat="1"/>
+    <row r="186" s="14" customFormat="1"/>
+    <row r="187" s="14" customFormat="1"/>
+    <row r="188" s="14" customFormat="1"/>
+    <row r="189" s="14" customFormat="1"/>
+    <row r="190" s="14" customFormat="1"/>
+    <row r="191" s="14" customFormat="1"/>
+    <row r="192" s="14" customFormat="1"/>
+    <row r="193" s="14" customFormat="1"/>
+    <row r="194" s="14" customFormat="1"/>
+    <row r="195" s="14" customFormat="1"/>
+    <row r="196" s="14" customFormat="1"/>
+    <row r="197" s="14" customFormat="1"/>
+    <row r="198" s="14" customFormat="1"/>
+    <row r="199" s="14" customFormat="1"/>
+    <row r="200" s="14" customFormat="1"/>
+    <row r="201" s="14" customFormat="1"/>
+    <row r="202" s="14" customFormat="1"/>
+    <row r="203" s="14" customFormat="1"/>
+    <row r="204" s="14" customFormat="1"/>
+    <row r="205" s="14" customFormat="1"/>
+    <row r="206" s="14" customFormat="1"/>
+    <row r="207" s="14" customFormat="1"/>
+    <row r="208" s="14" customFormat="1"/>
+    <row r="209" s="14" customFormat="1"/>
+    <row r="210" s="14" customFormat="1"/>
+    <row r="211" s="14" customFormat="1"/>
+    <row r="212" s="14" customFormat="1"/>
+    <row r="213" s="14" customFormat="1"/>
+    <row r="214" s="14" customFormat="1"/>
+    <row r="215" s="14" customFormat="1"/>
+    <row r="216" s="14" customFormat="1"/>
+    <row r="217" s="14" customFormat="1"/>
+    <row r="218" s="14" customFormat="1"/>
+    <row r="219" s="14" customFormat="1"/>
+    <row r="220" s="14" customFormat="1"/>
+    <row r="221" s="14" customFormat="1"/>
+    <row r="222" s="14" customFormat="1"/>
+    <row r="223" s="14" customFormat="1"/>
+    <row r="224" s="14" customFormat="1"/>
+    <row r="225" s="14" customFormat="1"/>
+    <row r="226" s="14" customFormat="1"/>
+    <row r="227" s="14" customFormat="1"/>
+    <row r="228" s="14" customFormat="1"/>
+    <row r="229" s="14" customFormat="1"/>
+    <row r="230" s="14" customFormat="1"/>
+    <row r="231" s="14" customFormat="1"/>
+    <row r="232" s="14" customFormat="1"/>
+    <row r="233" s="14" customFormat="1"/>
+    <row r="234" s="14" customFormat="1"/>
+    <row r="235" s="14" customFormat="1"/>
+    <row r="236" s="14" customFormat="1"/>
+    <row r="237" s="14" customFormat="1"/>
+    <row r="238" s="14" customFormat="1"/>
+    <row r="239" s="14" customFormat="1"/>
+    <row r="240" s="14" customFormat="1"/>
+    <row r="241" s="14" customFormat="1"/>
+    <row r="242" s="14" customFormat="1"/>
+    <row r="243" s="14" customFormat="1"/>
+    <row r="244" s="14" customFormat="1"/>
+    <row r="245" s="14" customFormat="1"/>
+    <row r="246" s="14" customFormat="1"/>
+    <row r="247" s="14" customFormat="1"/>
+    <row r="248" s="14" customFormat="1"/>
+    <row r="249" s="14" customFormat="1"/>
+    <row r="250" s="14" customFormat="1"/>
+    <row r="251" s="14" customFormat="1"/>
+    <row r="252" s="14" customFormat="1"/>
+    <row r="253" s="14" customFormat="1"/>
+    <row r="254" s="14" customFormat="1"/>
+    <row r="255" s="14" customFormat="1"/>
+    <row r="256" s="14" customFormat="1"/>
+    <row r="257" s="14" customFormat="1"/>
+    <row r="258" s="14" customFormat="1"/>
+    <row r="259" s="14" customFormat="1"/>
+    <row r="260" s="14" customFormat="1"/>
+    <row r="261" s="14" customFormat="1"/>
+    <row r="262" s="14" customFormat="1"/>
+    <row r="263" s="14" customFormat="1"/>
+    <row r="264" s="14" customFormat="1"/>
+    <row r="265" s="14" customFormat="1"/>
+    <row r="266" s="14" customFormat="1"/>
+    <row r="267" s="14" customFormat="1"/>
+    <row r="268" s="14" customFormat="1"/>
+    <row r="269" s="14" customFormat="1"/>
+    <row r="270" s="14" customFormat="1"/>
+    <row r="271" s="14" customFormat="1"/>
+    <row r="272" s="14" customFormat="1"/>
+    <row r="273" s="14" customFormat="1"/>
+    <row r="274" s="14" customFormat="1"/>
+    <row r="275" s="14" customFormat="1"/>
+    <row r="276" s="14" customFormat="1"/>
+    <row r="277" s="14" customFormat="1"/>
+    <row r="278" s="14" customFormat="1"/>
+    <row r="279" s="14" customFormat="1"/>
+    <row r="280" s="14" customFormat="1"/>
+    <row r="281" s="14" customFormat="1"/>
+    <row r="282" s="14" customFormat="1"/>
+    <row r="283" s="14" customFormat="1"/>
+    <row r="284" s="14" customFormat="1"/>
+    <row r="285" s="14" customFormat="1"/>
+    <row r="286" s="14" customFormat="1"/>
+    <row r="287" s="14" customFormat="1"/>
+    <row r="288" s="14" customFormat="1"/>
+    <row r="289" s="14" customFormat="1"/>
+    <row r="290" s="14" customFormat="1"/>
+    <row r="291" s="14" customFormat="1"/>
+    <row r="292" s="14" customFormat="1"/>
+    <row r="293" s="14" customFormat="1"/>
+    <row r="294" s="14" customFormat="1"/>
+    <row r="295" s="14" customFormat="1"/>
+    <row r="296" s="14" customFormat="1"/>
+    <row r="297" s="14" customFormat="1"/>
+    <row r="298" s="14" customFormat="1"/>
+    <row r="299" s="14" customFormat="1"/>
+    <row r="300" s="14" customFormat="1"/>
+    <row r="301" s="14" customFormat="1"/>
+    <row r="302" s="14" customFormat="1"/>
+    <row r="303" s="14" customFormat="1"/>
+    <row r="304" s="14" customFormat="1"/>
+    <row r="305" s="14" customFormat="1"/>
+    <row r="306" s="14" customFormat="1"/>
+    <row r="307" s="14" customFormat="1"/>
+    <row r="308" s="14" customFormat="1"/>
+    <row r="309" s="14" customFormat="1"/>
+    <row r="310" s="14" customFormat="1"/>
+    <row r="311" s="14" customFormat="1"/>
+    <row r="312" s="14" customFormat="1"/>
+    <row r="313" s="14" customFormat="1"/>
+    <row r="314" s="14" customFormat="1"/>
+    <row r="315" s="14" customFormat="1"/>
+    <row r="316" s="14" customFormat="1"/>
+    <row r="317" s="14" customFormat="1"/>
+    <row r="318" s="14" customFormat="1"/>
+    <row r="319" s="14" customFormat="1"/>
+    <row r="320" s="14" customFormat="1"/>
+    <row r="321" s="14" customFormat="1"/>
+    <row r="322" s="14" customFormat="1"/>
+    <row r="323" s="14" customFormat="1"/>
+    <row r="324" s="14" customFormat="1"/>
+    <row r="325" s="14" customFormat="1"/>
+    <row r="326" s="14" customFormat="1"/>
+    <row r="327" s="14" customFormat="1"/>
+    <row r="328" s="14" customFormat="1"/>
+    <row r="329" s="14" customFormat="1"/>
+    <row r="330" s="14" customFormat="1"/>
+    <row r="331" s="14" customFormat="1"/>
+    <row r="332" s="14" customFormat="1"/>
+    <row r="333" s="14" customFormat="1"/>
+    <row r="334" s="14" customFormat="1"/>
+    <row r="335" s="14" customFormat="1"/>
+    <row r="336" s="14" customFormat="1"/>
+    <row r="337" s="14" customFormat="1"/>
+    <row r="338" s="14" customFormat="1"/>
+    <row r="339" s="14" customFormat="1"/>
+    <row r="340" s="14" customFormat="1"/>
+    <row r="341" s="14" customFormat="1"/>
+    <row r="342" s="14" customFormat="1"/>
+    <row r="343" s="14" customFormat="1"/>
+    <row r="344" s="14" customFormat="1"/>
+    <row r="345" s="14" customFormat="1"/>
+    <row r="346" s="14" customFormat="1"/>
+    <row r="347" s="14" customFormat="1"/>
+    <row r="348" s="14" customFormat="1"/>
+    <row r="349" s="14" customFormat="1"/>
+    <row r="350" s="14" customFormat="1"/>
+    <row r="351" s="14" customFormat="1"/>
+    <row r="352" s="14" customFormat="1"/>
+    <row r="353" s="14" customFormat="1"/>
+    <row r="354" s="14" customFormat="1"/>
+    <row r="355" s="14" customFormat="1"/>
+    <row r="356" s="14" customFormat="1"/>
+    <row r="357" s="14" customFormat="1"/>
+    <row r="358" s="14" customFormat="1"/>
+    <row r="359" s="14" customFormat="1"/>
+    <row r="360" s="14" customFormat="1"/>
+    <row r="361" s="14" customFormat="1"/>
+    <row r="362" s="14" customFormat="1"/>
+    <row r="363" s="14" customFormat="1"/>
+    <row r="364" s="14" customFormat="1"/>
+    <row r="365" s="14" customFormat="1"/>
+    <row r="366" s="14" customFormat="1"/>
+    <row r="367" s="14" customFormat="1"/>
+    <row r="368" s="14" customFormat="1"/>
+    <row r="369" s="14" customFormat="1"/>
+    <row r="370" s="14" customFormat="1"/>
+    <row r="371" s="14" customFormat="1"/>
+    <row r="372" s="14" customFormat="1"/>
+    <row r="373" s="14" customFormat="1"/>
+    <row r="374" s="14" customFormat="1"/>
+    <row r="375" s="14" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/evolution_coronavirus.xlsx
+++ b/evolution_coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6561FF2B-5256-054A-8DF2-DBBE7E162691}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3288CE4D-C135-264C-847D-2DE3910D7565}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="460" windowWidth="14200" windowHeight="16600" xr2:uid="{1AB0A3F3-C4EC-2847-A999-E7691A276297}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{1AB0A3F3-C4EC-2847-A999-E7691A276297}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Coria</t>
   </si>
@@ -137,12 +137,18 @@
   <si>
     <t>Don_Benito-Villanueva</t>
   </si>
+  <si>
+    <t>Acc_Extremadura_muertes</t>
+  </si>
+  <si>
+    <t>Acc_Extremadura_altas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +198,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -335,6 +353,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,11 +673,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD3C780-211D-6A4A-8E34-F58EFCCD0A14}">
   <dimension ref="A1:AQ375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK38" sqref="AK38"/>
+    <sheetView tabSelected="1" topLeftCell="AJ5" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN28" sqref="AN28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
@@ -691,7 +713,7 @@
     <col min="35" max="35" width="14.6640625" style="9" customWidth="1"/>
     <col min="36" max="36" width="12.83203125" style="11" customWidth="1"/>
     <col min="37" max="37" width="12.5" style="12" customWidth="1"/>
-    <col min="38" max="38" width="12.1640625" customWidth="1"/>
+    <col min="38" max="38" width="16" customWidth="1"/>
     <col min="39" max="39" width="12.33203125" customWidth="1"/>
     <col min="40" max="40" width="12.83203125" customWidth="1"/>
     <col min="41" max="41" width="17.83203125" customWidth="1"/>
@@ -699,7 +721,7 @@
     <col min="43" max="43" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="30" customHeight="1" thickBot="1">
+    <row r="1" spans="1:43" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
@@ -811,14 +833,18 @@
       <c r="AK1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
+      <c r="AL1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="25">
         <v>43892</v>
       </c>
@@ -950,8 +976,14 @@
         <f t="shared" ref="AK2:AK22" si="0">SUM(E2+I2+M2+Q2+U2+Y2+AC2+AG2)</f>
         <v>0</v>
       </c>
+      <c r="AL2" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>43893</v>
       </c>
@@ -1083,8 +1115,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AL3" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>43894</v>
       </c>
@@ -1216,8 +1254,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AL4" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>43895</v>
       </c>
@@ -1349,8 +1393,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AL5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>43896</v>
       </c>
@@ -1482,8 +1532,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AL6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
         <v>43897</v>
       </c>
@@ -1615,8 +1671,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AL7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
         <v>43898</v>
       </c>
@@ -1748,8 +1810,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AL8" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="25">
         <v>43899</v>
       </c>
@@ -1881,8 +1949,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AL9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="25">
         <v>43900</v>
       </c>
@@ -2014,8 +2088,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AL10" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="25">
         <v>43901</v>
       </c>
@@ -2147,8 +2227,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AL11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="25">
         <v>43902</v>
       </c>
@@ -2280,8 +2366,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AL12" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="25">
         <v>43903</v>
       </c>
@@ -2413,8 +2505,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AL13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="25">
         <v>43904</v>
       </c>
@@ -2546,11 +2644,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
+      <c r="AL14" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="30">
+        <v>5</v>
+      </c>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" s="25">
         <v>43905</v>
       </c>
@@ -2682,8 +2784,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="AL15" s="28">
+        <v>2</v>
+      </c>
+      <c r="AM15" s="30">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
         <v>43906</v>
       </c>
@@ -2815,8 +2923,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="AL16" s="28">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="30">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="25">
         <v>43907</v>
       </c>
@@ -2948,8 +3062,14 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="AL17" s="28">
+        <v>5</v>
+      </c>
+      <c r="AM17" s="30">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="25">
         <v>43908</v>
       </c>
@@ -3081,8 +3201,14 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="AL18" s="28">
+        <v>8</v>
+      </c>
+      <c r="AM18" s="30">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
         <v>43909</v>
       </c>
@@ -3214,8 +3340,14 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
+      <c r="AL19" s="28">
+        <v>9</v>
+      </c>
+      <c r="AM19" s="30">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
         <v>43910</v>
       </c>
@@ -3347,8 +3479,14 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="AL20" s="28">
+        <v>10</v>
+      </c>
+      <c r="AM20" s="30">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="25">
         <v>43911</v>
       </c>
@@ -3480,8 +3618,14 @@
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
+      <c r="AL21" s="28">
+        <v>12</v>
+      </c>
+      <c r="AM21" s="30">
+        <v>6</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" s="14" customFormat="1">
+    <row r="22" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
         <v>43912</v>
       </c>
@@ -3613,8 +3757,14 @@
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
+      <c r="AL22" s="28">
+        <v>14</v>
+      </c>
+      <c r="AM22" s="30">
+        <v>6</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" s="14" customFormat="1">
+    <row r="23" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
         <v>43913</v>
       </c>
@@ -3746,8 +3896,14 @@
         <f>SUM(E23+I23+M23+Q23+U23+Y23+AC23+AG23)</f>
         <v>127</v>
       </c>
+      <c r="AL23" s="28">
+        <v>18</v>
+      </c>
+      <c r="AM23" s="30">
+        <v>6</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" s="14" customFormat="1">
+    <row r="24" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
         <v>43914</v>
       </c>
@@ -3879,8 +4035,14 @@
         <f t="shared" ref="AK24:AK25" si="40">SUM(E24+I24+M24+Q24+U24+Y24+AC24+AG24)</f>
         <v>152</v>
       </c>
+      <c r="AL24" s="28">
+        <v>27</v>
+      </c>
+      <c r="AM24" s="30">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" s="14" customFormat="1">
+    <row r="25" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="25">
         <v>43915</v>
       </c>
@@ -4012,8 +4174,14 @@
         <f t="shared" si="40"/>
         <v>170</v>
       </c>
+      <c r="AL25" s="28">
+        <v>39</v>
+      </c>
+      <c r="AM25" s="30">
+        <v>8</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" s="14" customFormat="1">
+    <row r="26" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
         <v>43916</v>
       </c>
@@ -4145,8 +4313,14 @@
         <f t="shared" ref="AK26" si="60">SUM(E26+I26+M26+Q26+U26+Y26+AC26+AG26)</f>
         <v>188</v>
       </c>
+      <c r="AL26" s="28">
+        <v>58</v>
+      </c>
+      <c r="AM26" s="30">
+        <v>24</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" s="14" customFormat="1">
+    <row r="27" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25">
         <v>43917</v>
       </c>
@@ -4278,8 +4452,14 @@
         <f t="shared" ref="AK27" si="80">SUM(E27+I27+M27+Q27+U27+Y27+AC27+AG27)</f>
         <v>229</v>
       </c>
+      <c r="AL27" s="28">
+        <v>69</v>
+      </c>
+      <c r="AM27" s="30">
+        <v>33</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" s="14" customFormat="1">
+    <row r="28" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
         <v>43918</v>
       </c>
@@ -4411,8 +4591,14 @@
         <f t="shared" ref="AK28" si="100">SUM(E28+I28+M28+Q28+U28+Y28+AC28+AG28)</f>
         <v>237</v>
       </c>
+      <c r="AL28" s="28">
+        <v>88</v>
+      </c>
+      <c r="AM28" s="30">
+        <v>49</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" s="14" customFormat="1">
+    <row r="29" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25">
         <v>43919</v>
       </c>
@@ -4544,8 +4730,14 @@
         <f t="shared" ref="AK29" si="120">SUM(E29+I29+M29+Q29+U29+Y29+AC29+AG29)</f>
         <v>239</v>
       </c>
+      <c r="AL29" s="28">
+        <v>100</v>
+      </c>
+      <c r="AM29" s="30">
+        <v>51</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" s="14" customFormat="1">
+    <row r="30" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
         <v>43920</v>
       </c>
@@ -4677,8 +4869,14 @@
         <f t="shared" ref="AK30" si="140">SUM(E30+I30+M30+Q30+U30+Y30+AC30+AG30)</f>
         <v>244</v>
       </c>
+      <c r="AL30" s="28">
+        <v>106</v>
+      </c>
+      <c r="AM30" s="30">
+        <v>60</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" s="14" customFormat="1">
+    <row r="31" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
         <v>43921</v>
       </c>
@@ -4810,8 +5008,14 @@
         <f t="shared" ref="AK31" si="160">SUM(E31+I31+M31+Q31+U31+Y31+AC31+AG31)</f>
         <v>271</v>
       </c>
+      <c r="AL31" s="28">
+        <v>133</v>
+      </c>
+      <c r="AM31" s="30">
+        <v>91</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" s="14" customFormat="1">
+    <row r="32" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25">
         <v>43922</v>
       </c>
@@ -4943,8 +5147,14 @@
         <f t="shared" ref="AK32:AK33" si="180">SUM(E32+I32+M32+Q32+U32+Y32+AC32+AG32)</f>
         <v>273</v>
       </c>
+      <c r="AL32" s="28">
+        <v>152</v>
+      </c>
+      <c r="AM32" s="30">
+        <v>113</v>
+      </c>
     </row>
-    <row r="33" spans="1:37" s="14" customFormat="1">
+    <row r="33" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
         <v>43923</v>
       </c>
@@ -5076,8 +5286,14 @@
         <f t="shared" si="180"/>
         <v>279</v>
       </c>
+      <c r="AL33" s="28">
+        <v>181</v>
+      </c>
+      <c r="AM33" s="30">
+        <v>139</v>
+      </c>
     </row>
-    <row r="34" spans="1:37" s="14" customFormat="1">
+    <row r="34" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="25">
         <v>43924</v>
       </c>
@@ -5209,8 +5425,14 @@
         <f t="shared" ref="AK34" si="200">SUM(E34+I34+M34+Q34+U34+Y34+AC34+AG34)</f>
         <v>284</v>
       </c>
+      <c r="AL34" s="28">
+        <v>200</v>
+      </c>
+      <c r="AM34" s="30">
+        <v>164</v>
+      </c>
     </row>
-    <row r="35" spans="1:37" s="14" customFormat="1">
+    <row r="35" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="25">
         <v>43925</v>
       </c>
@@ -5342,8 +5564,14 @@
         <f t="shared" ref="AK35:AK36" si="220">SUM(E35+I35+M35+Q35+U35+Y35+AC35+AG35)</f>
         <v>294</v>
       </c>
+      <c r="AL35" s="28">
+        <v>208</v>
+      </c>
+      <c r="AM35" s="30">
+        <v>205</v>
+      </c>
     </row>
-    <row r="36" spans="1:37" s="14" customFormat="1">
+    <row r="36" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25">
         <v>43926</v>
       </c>
@@ -5475,8 +5703,14 @@
         <f t="shared" si="220"/>
         <v>294</v>
       </c>
+      <c r="AL36" s="28">
+        <v>218</v>
+      </c>
+      <c r="AM36" s="30">
+        <v>215</v>
+      </c>
     </row>
-    <row r="37" spans="1:37" s="14" customFormat="1">
+    <row r="37" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="25">
         <v>43927</v>
       </c>
@@ -5608,8 +5842,14 @@
         <f t="shared" ref="AK37" si="240">SUM(E37+I37+M37+Q37+U37+Y37+AC37+AG37)</f>
         <v>298</v>
       </c>
+      <c r="AL37" s="28">
+        <v>228</v>
+      </c>
+      <c r="AM37" s="30">
+        <v>223</v>
+      </c>
     </row>
-    <row r="38" spans="1:37" s="14" customFormat="1">
+    <row r="38" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="25">
         <v>43928</v>
       </c>
@@ -5741,344 +5981,592 @@
         <f t="shared" ref="AK38" si="260">SUM(E38+I38+M38+Q38+U38+Y38+AC38+AG38)</f>
         <v>300</v>
       </c>
+      <c r="AL38" s="28">
+        <v>258</v>
+      </c>
+      <c r="AM38" s="30">
+        <v>282</v>
+      </c>
     </row>
-    <row r="39" spans="1:37" s="14" customFormat="1"/>
-    <row r="40" spans="1:37" s="14" customFormat="1"/>
-    <row r="41" spans="1:37" s="14" customFormat="1"/>
-    <row r="42" spans="1:37" s="14" customFormat="1"/>
-    <row r="43" spans="1:37" s="14" customFormat="1"/>
-    <row r="44" spans="1:37" s="14" customFormat="1"/>
-    <row r="45" spans="1:37" s="14" customFormat="1"/>
-    <row r="46" spans="1:37" s="14" customFormat="1"/>
-    <row r="47" spans="1:37" s="14" customFormat="1"/>
-    <row r="48" spans="1:37" s="14" customFormat="1"/>
-    <row r="49" s="14" customFormat="1"/>
-    <row r="50" s="14" customFormat="1"/>
-    <row r="51" s="14" customFormat="1"/>
-    <row r="52" s="14" customFormat="1"/>
-    <row r="53" s="14" customFormat="1"/>
-    <row r="54" s="14" customFormat="1"/>
-    <row r="55" s="14" customFormat="1"/>
-    <row r="56" s="14" customFormat="1"/>
-    <row r="57" s="14" customFormat="1"/>
-    <row r="58" s="14" customFormat="1"/>
-    <row r="59" s="14" customFormat="1"/>
-    <row r="60" s="14" customFormat="1"/>
-    <row r="61" s="14" customFormat="1"/>
-    <row r="62" s="14" customFormat="1"/>
-    <row r="63" s="14" customFormat="1"/>
-    <row r="64" s="14" customFormat="1"/>
-    <row r="65" s="14" customFormat="1"/>
-    <row r="66" s="14" customFormat="1"/>
-    <row r="67" s="14" customFormat="1"/>
-    <row r="68" s="14" customFormat="1"/>
-    <row r="69" s="14" customFormat="1"/>
-    <row r="70" s="14" customFormat="1"/>
-    <row r="71" s="14" customFormat="1"/>
-    <row r="72" s="14" customFormat="1"/>
-    <row r="73" s="14" customFormat="1"/>
-    <row r="74" s="14" customFormat="1"/>
-    <row r="75" s="14" customFormat="1"/>
-    <row r="76" s="14" customFormat="1"/>
-    <row r="77" s="14" customFormat="1"/>
-    <row r="78" s="14" customFormat="1"/>
-    <row r="79" s="14" customFormat="1"/>
-    <row r="80" s="14" customFormat="1"/>
-    <row r="81" s="14" customFormat="1"/>
-    <row r="82" s="14" customFormat="1"/>
-    <row r="83" s="14" customFormat="1"/>
-    <row r="84" s="14" customFormat="1"/>
-    <row r="85" s="14" customFormat="1"/>
-    <row r="86" s="14" customFormat="1"/>
-    <row r="87" s="14" customFormat="1"/>
-    <row r="88" s="14" customFormat="1"/>
-    <row r="89" s="14" customFormat="1"/>
-    <row r="90" s="14" customFormat="1"/>
-    <row r="91" s="14" customFormat="1"/>
-    <row r="92" s="14" customFormat="1"/>
-    <row r="93" s="14" customFormat="1"/>
-    <row r="94" s="14" customFormat="1"/>
-    <row r="95" s="14" customFormat="1"/>
-    <row r="96" s="14" customFormat="1"/>
-    <row r="97" s="14" customFormat="1"/>
-    <row r="98" s="14" customFormat="1"/>
-    <row r="99" s="14" customFormat="1"/>
-    <row r="100" s="14" customFormat="1"/>
-    <row r="101" s="14" customFormat="1"/>
-    <row r="102" s="14" customFormat="1"/>
-    <row r="103" s="14" customFormat="1"/>
-    <row r="104" s="14" customFormat="1"/>
-    <row r="105" s="14" customFormat="1"/>
-    <row r="106" s="14" customFormat="1"/>
-    <row r="107" s="14" customFormat="1"/>
-    <row r="108" s="14" customFormat="1"/>
-    <row r="109" s="14" customFormat="1"/>
-    <row r="110" s="14" customFormat="1"/>
-    <row r="111" s="14" customFormat="1"/>
-    <row r="112" s="14" customFormat="1"/>
-    <row r="113" s="14" customFormat="1"/>
-    <row r="114" s="14" customFormat="1"/>
-    <row r="115" s="14" customFormat="1"/>
-    <row r="116" s="14" customFormat="1"/>
-    <row r="117" s="14" customFormat="1"/>
-    <row r="118" s="14" customFormat="1"/>
-    <row r="119" s="14" customFormat="1"/>
-    <row r="120" s="14" customFormat="1"/>
-    <row r="121" s="14" customFormat="1"/>
-    <row r="122" s="14" customFormat="1"/>
-    <row r="123" s="14" customFormat="1"/>
-    <row r="124" s="14" customFormat="1"/>
-    <row r="125" s="14" customFormat="1"/>
-    <row r="126" s="14" customFormat="1"/>
-    <row r="127" s="14" customFormat="1"/>
-    <row r="128" s="14" customFormat="1"/>
-    <row r="129" s="14" customFormat="1"/>
-    <row r="130" s="14" customFormat="1"/>
-    <row r="131" s="14" customFormat="1"/>
-    <row r="132" s="14" customFormat="1"/>
-    <row r="133" s="14" customFormat="1"/>
-    <row r="134" s="14" customFormat="1"/>
-    <row r="135" s="14" customFormat="1"/>
-    <row r="136" s="14" customFormat="1"/>
-    <row r="137" s="14" customFormat="1"/>
-    <row r="138" s="14" customFormat="1"/>
-    <row r="139" s="14" customFormat="1"/>
-    <row r="140" s="14" customFormat="1"/>
-    <row r="141" s="14" customFormat="1"/>
-    <row r="142" s="14" customFormat="1"/>
-    <row r="143" s="14" customFormat="1"/>
-    <row r="144" s="14" customFormat="1"/>
-    <row r="145" s="14" customFormat="1"/>
-    <row r="146" s="14" customFormat="1"/>
-    <row r="147" s="14" customFormat="1"/>
-    <row r="148" s="14" customFormat="1"/>
-    <row r="149" s="14" customFormat="1"/>
-    <row r="150" s="14" customFormat="1"/>
-    <row r="151" s="14" customFormat="1"/>
-    <row r="152" s="14" customFormat="1"/>
-    <row r="153" s="14" customFormat="1"/>
-    <row r="154" s="14" customFormat="1"/>
-    <row r="155" s="14" customFormat="1"/>
-    <row r="156" s="14" customFormat="1"/>
-    <row r="157" s="14" customFormat="1"/>
-    <row r="158" s="14" customFormat="1"/>
-    <row r="159" s="14" customFormat="1"/>
-    <row r="160" s="14" customFormat="1"/>
-    <row r="161" s="14" customFormat="1"/>
-    <row r="162" s="14" customFormat="1"/>
-    <row r="163" s="14" customFormat="1"/>
-    <row r="164" s="14" customFormat="1"/>
-    <row r="165" s="14" customFormat="1"/>
-    <row r="166" s="14" customFormat="1"/>
-    <row r="167" s="14" customFormat="1"/>
-    <row r="168" s="14" customFormat="1"/>
-    <row r="169" s="14" customFormat="1"/>
-    <row r="170" s="14" customFormat="1"/>
-    <row r="171" s="14" customFormat="1"/>
-    <row r="172" s="14" customFormat="1"/>
-    <row r="173" s="14" customFormat="1"/>
-    <row r="174" s="14" customFormat="1"/>
-    <row r="175" s="14" customFormat="1"/>
-    <row r="176" s="14" customFormat="1"/>
-    <row r="177" s="14" customFormat="1"/>
-    <row r="178" s="14" customFormat="1"/>
-    <row r="179" s="14" customFormat="1"/>
-    <row r="180" s="14" customFormat="1"/>
-    <row r="181" s="14" customFormat="1"/>
-    <row r="182" s="14" customFormat="1"/>
-    <row r="183" s="14" customFormat="1"/>
-    <row r="184" s="14" customFormat="1"/>
-    <row r="185" s="14" customFormat="1"/>
-    <row r="186" s="14" customFormat="1"/>
-    <row r="187" s="14" customFormat="1"/>
-    <row r="188" s="14" customFormat="1"/>
-    <row r="189" s="14" customFormat="1"/>
-    <row r="190" s="14" customFormat="1"/>
-    <row r="191" s="14" customFormat="1"/>
-    <row r="192" s="14" customFormat="1"/>
-    <row r="193" s="14" customFormat="1"/>
-    <row r="194" s="14" customFormat="1"/>
-    <row r="195" s="14" customFormat="1"/>
-    <row r="196" s="14" customFormat="1"/>
-    <row r="197" s="14" customFormat="1"/>
-    <row r="198" s="14" customFormat="1"/>
-    <row r="199" s="14" customFormat="1"/>
-    <row r="200" s="14" customFormat="1"/>
-    <row r="201" s="14" customFormat="1"/>
-    <row r="202" s="14" customFormat="1"/>
-    <row r="203" s="14" customFormat="1"/>
-    <row r="204" s="14" customFormat="1"/>
-    <row r="205" s="14" customFormat="1"/>
-    <row r="206" s="14" customFormat="1"/>
-    <row r="207" s="14" customFormat="1"/>
-    <row r="208" s="14" customFormat="1"/>
-    <row r="209" s="14" customFormat="1"/>
-    <row r="210" s="14" customFormat="1"/>
-    <row r="211" s="14" customFormat="1"/>
-    <row r="212" s="14" customFormat="1"/>
-    <row r="213" s="14" customFormat="1"/>
-    <row r="214" s="14" customFormat="1"/>
-    <row r="215" s="14" customFormat="1"/>
-    <row r="216" s="14" customFormat="1"/>
-    <row r="217" s="14" customFormat="1"/>
-    <row r="218" s="14" customFormat="1"/>
-    <row r="219" s="14" customFormat="1"/>
-    <row r="220" s="14" customFormat="1"/>
-    <row r="221" s="14" customFormat="1"/>
-    <row r="222" s="14" customFormat="1"/>
-    <row r="223" s="14" customFormat="1"/>
-    <row r="224" s="14" customFormat="1"/>
-    <row r="225" s="14" customFormat="1"/>
-    <row r="226" s="14" customFormat="1"/>
-    <row r="227" s="14" customFormat="1"/>
-    <row r="228" s="14" customFormat="1"/>
-    <row r="229" s="14" customFormat="1"/>
-    <row r="230" s="14" customFormat="1"/>
-    <row r="231" s="14" customFormat="1"/>
-    <row r="232" s="14" customFormat="1"/>
-    <row r="233" s="14" customFormat="1"/>
-    <row r="234" s="14" customFormat="1"/>
-    <row r="235" s="14" customFormat="1"/>
-    <row r="236" s="14" customFormat="1"/>
-    <row r="237" s="14" customFormat="1"/>
-    <row r="238" s="14" customFormat="1"/>
-    <row r="239" s="14" customFormat="1"/>
-    <row r="240" s="14" customFormat="1"/>
-    <row r="241" s="14" customFormat="1"/>
-    <row r="242" s="14" customFormat="1"/>
-    <row r="243" s="14" customFormat="1"/>
-    <row r="244" s="14" customFormat="1"/>
-    <row r="245" s="14" customFormat="1"/>
-    <row r="246" s="14" customFormat="1"/>
-    <row r="247" s="14" customFormat="1"/>
-    <row r="248" s="14" customFormat="1"/>
-    <row r="249" s="14" customFormat="1"/>
-    <row r="250" s="14" customFormat="1"/>
-    <row r="251" s="14" customFormat="1"/>
-    <row r="252" s="14" customFormat="1"/>
-    <row r="253" s="14" customFormat="1"/>
-    <row r="254" s="14" customFormat="1"/>
-    <row r="255" s="14" customFormat="1"/>
-    <row r="256" s="14" customFormat="1"/>
-    <row r="257" s="14" customFormat="1"/>
-    <row r="258" s="14" customFormat="1"/>
-    <row r="259" s="14" customFormat="1"/>
-    <row r="260" s="14" customFormat="1"/>
-    <row r="261" s="14" customFormat="1"/>
-    <row r="262" s="14" customFormat="1"/>
-    <row r="263" s="14" customFormat="1"/>
-    <row r="264" s="14" customFormat="1"/>
-    <row r="265" s="14" customFormat="1"/>
-    <row r="266" s="14" customFormat="1"/>
-    <row r="267" s="14" customFormat="1"/>
-    <row r="268" s="14" customFormat="1"/>
-    <row r="269" s="14" customFormat="1"/>
-    <row r="270" s="14" customFormat="1"/>
-    <row r="271" s="14" customFormat="1"/>
-    <row r="272" s="14" customFormat="1"/>
-    <row r="273" s="14" customFormat="1"/>
-    <row r="274" s="14" customFormat="1"/>
-    <row r="275" s="14" customFormat="1"/>
-    <row r="276" s="14" customFormat="1"/>
-    <row r="277" s="14" customFormat="1"/>
-    <row r="278" s="14" customFormat="1"/>
-    <row r="279" s="14" customFormat="1"/>
-    <row r="280" s="14" customFormat="1"/>
-    <row r="281" s="14" customFormat="1"/>
-    <row r="282" s="14" customFormat="1"/>
-    <row r="283" s="14" customFormat="1"/>
-    <row r="284" s="14" customFormat="1"/>
-    <row r="285" s="14" customFormat="1"/>
-    <row r="286" s="14" customFormat="1"/>
-    <row r="287" s="14" customFormat="1"/>
-    <row r="288" s="14" customFormat="1"/>
-    <row r="289" s="14" customFormat="1"/>
-    <row r="290" s="14" customFormat="1"/>
-    <row r="291" s="14" customFormat="1"/>
-    <row r="292" s="14" customFormat="1"/>
-    <row r="293" s="14" customFormat="1"/>
-    <row r="294" s="14" customFormat="1"/>
-    <row r="295" s="14" customFormat="1"/>
-    <row r="296" s="14" customFormat="1"/>
-    <row r="297" s="14" customFormat="1"/>
-    <row r="298" s="14" customFormat="1"/>
-    <row r="299" s="14" customFormat="1"/>
-    <row r="300" s="14" customFormat="1"/>
-    <row r="301" s="14" customFormat="1"/>
-    <row r="302" s="14" customFormat="1"/>
-    <row r="303" s="14" customFormat="1"/>
-    <row r="304" s="14" customFormat="1"/>
-    <row r="305" s="14" customFormat="1"/>
-    <row r="306" s="14" customFormat="1"/>
-    <row r="307" s="14" customFormat="1"/>
-    <row r="308" s="14" customFormat="1"/>
-    <row r="309" s="14" customFormat="1"/>
-    <row r="310" s="14" customFormat="1"/>
-    <row r="311" s="14" customFormat="1"/>
-    <row r="312" s="14" customFormat="1"/>
-    <row r="313" s="14" customFormat="1"/>
-    <row r="314" s="14" customFormat="1"/>
-    <row r="315" s="14" customFormat="1"/>
-    <row r="316" s="14" customFormat="1"/>
-    <row r="317" s="14" customFormat="1"/>
-    <row r="318" s="14" customFormat="1"/>
-    <row r="319" s="14" customFormat="1"/>
-    <row r="320" s="14" customFormat="1"/>
-    <row r="321" s="14" customFormat="1"/>
-    <row r="322" s="14" customFormat="1"/>
-    <row r="323" s="14" customFormat="1"/>
-    <row r="324" s="14" customFormat="1"/>
-    <row r="325" s="14" customFormat="1"/>
-    <row r="326" s="14" customFormat="1"/>
-    <row r="327" s="14" customFormat="1"/>
-    <row r="328" s="14" customFormat="1"/>
-    <row r="329" s="14" customFormat="1"/>
-    <row r="330" s="14" customFormat="1"/>
-    <row r="331" s="14" customFormat="1"/>
-    <row r="332" s="14" customFormat="1"/>
-    <row r="333" s="14" customFormat="1"/>
-    <row r="334" s="14" customFormat="1"/>
-    <row r="335" s="14" customFormat="1"/>
-    <row r="336" s="14" customFormat="1"/>
-    <row r="337" s="14" customFormat="1"/>
-    <row r="338" s="14" customFormat="1"/>
-    <row r="339" s="14" customFormat="1"/>
-    <row r="340" s="14" customFormat="1"/>
-    <row r="341" s="14" customFormat="1"/>
-    <row r="342" s="14" customFormat="1"/>
-    <row r="343" s="14" customFormat="1"/>
-    <row r="344" s="14" customFormat="1"/>
-    <row r="345" s="14" customFormat="1"/>
-    <row r="346" s="14" customFormat="1"/>
-    <row r="347" s="14" customFormat="1"/>
-    <row r="348" s="14" customFormat="1"/>
-    <row r="349" s="14" customFormat="1"/>
-    <row r="350" s="14" customFormat="1"/>
-    <row r="351" s="14" customFormat="1"/>
-    <row r="352" s="14" customFormat="1"/>
-    <row r="353" s="14" customFormat="1"/>
-    <row r="354" s="14" customFormat="1"/>
-    <row r="355" s="14" customFormat="1"/>
-    <row r="356" s="14" customFormat="1"/>
-    <row r="357" s="14" customFormat="1"/>
-    <row r="358" s="14" customFormat="1"/>
-    <row r="359" s="14" customFormat="1"/>
-    <row r="360" s="14" customFormat="1"/>
-    <row r="361" s="14" customFormat="1"/>
-    <row r="362" s="14" customFormat="1"/>
-    <row r="363" s="14" customFormat="1"/>
-    <row r="364" s="14" customFormat="1"/>
-    <row r="365" s="14" customFormat="1"/>
-    <row r="366" s="14" customFormat="1"/>
-    <row r="367" s="14" customFormat="1"/>
-    <row r="368" s="14" customFormat="1"/>
-    <row r="369" s="14" customFormat="1"/>
-    <row r="370" s="14" customFormat="1"/>
-    <row r="371" s="14" customFormat="1"/>
-    <row r="372" s="14" customFormat="1"/>
-    <row r="373" s="14" customFormat="1"/>
-    <row r="374" s="14" customFormat="1"/>
-    <row r="375" s="14" customFormat="1"/>
+    <row r="39" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="25">
+        <v>43929</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" ref="C39" si="261">SUM(C38+B39)</f>
+        <v>355</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7">
+        <f t="shared" ref="E39" si="262">SUM(E38+D39)</f>
+        <v>59</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" ref="G39" si="263">SUM(G38+F39)</f>
+        <v>180</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7">
+        <f t="shared" ref="I39" si="264">SUM(I38+H39)</f>
+        <v>15</v>
+      </c>
+      <c r="J39" s="3">
+        <v>14</v>
+      </c>
+      <c r="K39" s="5">
+        <f t="shared" ref="K39" si="265">SUM(K38+J39)</f>
+        <v>157</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="7">
+        <f t="shared" ref="M39" si="266">SUM(M38+L39)</f>
+        <v>42</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" ref="O39" si="267">SUM(O38+N39)</f>
+        <v>39</v>
+      </c>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="7">
+        <f t="shared" ref="Q39" si="268">SUM(Q38+P39)</f>
+        <v>10</v>
+      </c>
+      <c r="R39" s="3">
+        <v>37</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" ref="S39" si="269">SUM(S38+R39)</f>
+        <v>1013</v>
+      </c>
+      <c r="T39" s="6"/>
+      <c r="U39" s="7">
+        <f t="shared" ref="U39" si="270">SUM(U38+T39)</f>
+        <v>80</v>
+      </c>
+      <c r="V39" s="3">
+        <v>2</v>
+      </c>
+      <c r="W39" s="5">
+        <f t="shared" ref="W39" si="271">SUM(W38+V39)</f>
+        <v>62</v>
+      </c>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="7">
+        <f t="shared" ref="Y39" si="272">SUM(Y38+X39)</f>
+        <v>14</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA39" s="5">
+        <f t="shared" ref="AA39" si="273">SUM(AA38+Z39)</f>
+        <v>226</v>
+      </c>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="7">
+        <f t="shared" ref="AC39" si="274">SUM(AC38+AB39)</f>
+        <v>69</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE39" s="5">
+        <f t="shared" ref="AE39" si="275">SUM(AE38+AD39)</f>
+        <v>152</v>
+      </c>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="7">
+        <f t="shared" ref="AG39" si="276">SUM(AG38+AF39)</f>
+        <v>11</v>
+      </c>
+      <c r="AH39" s="8">
+        <f t="shared" ref="AH39" si="277">SUM(B39+F39+J39+N39+R39+V39+Z39+AD39)</f>
+        <v>68</v>
+      </c>
+      <c r="AI39" s="5">
+        <f t="shared" ref="AI39" si="278">SUM(AI38+AH39)</f>
+        <v>2184</v>
+      </c>
+      <c r="AJ39" s="6">
+        <f t="shared" ref="AJ39" si="279">SUM(D39+L39+P39+T39+X39+AB39+AF39)</f>
+        <v>0</v>
+      </c>
+      <c r="AK39" s="7">
+        <v>282</v>
+      </c>
+      <c r="AL39" s="28">
+        <v>271</v>
+      </c>
+      <c r="AM39" s="30">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25">
+        <v>43930</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" ref="C40" si="280">SUM(C39+B40)</f>
+        <v>359</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7">
+        <f t="shared" ref="E40" si="281">SUM(E39+D40)</f>
+        <v>59</v>
+      </c>
+      <c r="F40" s="3">
+        <v>18</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" ref="G40" si="282">SUM(G39+F40)</f>
+        <v>198</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="7">
+        <f t="shared" ref="I40" si="283">SUM(I39+H40)</f>
+        <v>15</v>
+      </c>
+      <c r="J40" s="3">
+        <v>6</v>
+      </c>
+      <c r="K40" s="5">
+        <f t="shared" ref="K40" si="284">SUM(K39+J40)</f>
+        <v>163</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="7">
+        <f t="shared" ref="M40" si="285">SUM(M39+L40)</f>
+        <v>42</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" ref="O40" si="286">SUM(O39+N40)</f>
+        <v>40</v>
+      </c>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="7">
+        <f t="shared" ref="Q40" si="287">SUM(Q39+P40)</f>
+        <v>10</v>
+      </c>
+      <c r="R40" s="3">
+        <v>42</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" ref="S40" si="288">SUM(S39+R40)</f>
+        <v>1055</v>
+      </c>
+      <c r="T40" s="6"/>
+      <c r="U40" s="7">
+        <f t="shared" ref="U40" si="289">SUM(U39+T40)</f>
+        <v>80</v>
+      </c>
+      <c r="V40" s="3">
+        <v>1</v>
+      </c>
+      <c r="W40" s="5">
+        <f t="shared" ref="W40" si="290">SUM(W39+V40)</f>
+        <v>63</v>
+      </c>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="7">
+        <f t="shared" ref="Y40" si="291">SUM(Y39+X40)</f>
+        <v>14</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>14</v>
+      </c>
+      <c r="AA40" s="5">
+        <f t="shared" ref="AA40" si="292">SUM(AA39+Z40)</f>
+        <v>240</v>
+      </c>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="7">
+        <f t="shared" ref="AC40" si="293">SUM(AC39+AB40)</f>
+        <v>69</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE40" s="5">
+        <f t="shared" ref="AE40" si="294">SUM(AE39+AD40)</f>
+        <v>155</v>
+      </c>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="7">
+        <f t="shared" ref="AG40" si="295">SUM(AG39+AF40)</f>
+        <v>11</v>
+      </c>
+      <c r="AH40" s="8">
+        <f t="shared" ref="AH40" si="296">SUM(B40+F40+J40+N40+R40+V40+Z40+AD40)</f>
+        <v>89</v>
+      </c>
+      <c r="AI40" s="5">
+        <f t="shared" ref="AI40" si="297">SUM(AI39+AH40)</f>
+        <v>2273</v>
+      </c>
+      <c r="AJ40" s="6">
+        <f t="shared" ref="AJ40" si="298">SUM(D40+L40+P40+T40+X40+AB40+AF40)</f>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="7">
+        <v>282</v>
+      </c>
+      <c r="AL40" s="28">
+        <v>283</v>
+      </c>
+      <c r="AM40" s="30">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/evolution_coronavirus.xlsx
+++ b/evolution_coronavirus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3288CE4D-C135-264C-847D-2DE3910D7565}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFC6489-151C-614B-8805-F1789FB88222}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{1AB0A3F3-C4EC-2847-A999-E7691A276297}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16600" xr2:uid="{1AB0A3F3-C4EC-2847-A999-E7691A276297}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD3C780-211D-6A4A-8E34-F58EFCCD0A14}">
   <dimension ref="A1:AQ375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ5" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN28" sqref="AN28"/>
+    <sheetView tabSelected="1" topLeftCell="AF3" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN43" sqref="AN43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3776,11 +3776,11 @@
         <v>85</v>
       </c>
       <c r="D23" s="6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E23" s="7">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F23" s="3">
         <v>9</v>
@@ -3890,11 +3890,11 @@
       </c>
       <c r="AJ23" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AK23" s="7">
         <f>SUM(E23+I23+M23+Q23+U23+Y23+AC23+AG23)</f>
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AL23" s="28">
         <v>18</v>
@@ -3915,11 +3915,11 @@
         <v>119</v>
       </c>
       <c r="D24" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" ref="E24:E25" si="22">SUM(E23+D24)</f>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -4029,11 +4029,11 @@
       </c>
       <c r="AJ24" s="6">
         <f t="shared" ref="AJ24:AJ25" si="39">SUM(D24+L24+P24+T24+X24+AB24+AF24)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK24" s="7">
         <f t="shared" ref="AK24:AK25" si="40">SUM(E24+I24+M24+Q24+U24+Y24+AC24+AG24)</f>
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="AL24" s="28">
         <v>27</v>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E25" s="7">
         <f t="shared" si="22"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F25" s="3">
         <v>17</v>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="AK25" s="7">
         <f t="shared" si="40"/>
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="AL25" s="28">
         <v>39</v>
@@ -4193,11 +4193,11 @@
         <v>185</v>
       </c>
       <c r="D26" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" ref="E26" si="42">SUM(E25+D26)</f>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F26" s="3">
         <v>15</v>
@@ -4307,11 +4307,11 @@
       </c>
       <c r="AJ26" s="6">
         <f t="shared" ref="AJ26" si="59">SUM(D26+L26+P26+T26+X26+AB26+AF26)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK26" s="7">
         <f t="shared" ref="AK26" si="60">SUM(E26+I26+M26+Q26+U26+Y26+AC26+AG26)</f>
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="AL26" s="28">
         <v>58</v>
@@ -4332,11 +4332,11 @@
         <v>214</v>
       </c>
       <c r="D27" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" ref="E27" si="62">SUM(E26+D27)</f>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F27" s="3">
         <v>9</v>
@@ -4446,11 +4446,11 @@
       </c>
       <c r="AJ27" s="6">
         <f t="shared" ref="AJ27" si="79">SUM(D27+L27+P27+T27+X27+AB27+AF27)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AK27" s="7">
         <f t="shared" ref="AK27" si="80">SUM(E27+I27+M27+Q27+U27+Y27+AC27+AG27)</f>
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="AL27" s="28">
         <v>69</v>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="E28" s="7">
         <f t="shared" ref="E28" si="82">SUM(E27+D28)</f>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F28" s="3">
         <v>16</v>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="AK28" s="7">
         <f t="shared" ref="AK28" si="100">SUM(E28+I28+M28+Q28+U28+Y28+AC28+AG28)</f>
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="AL28" s="28">
         <v>88</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="E29" s="7">
         <f t="shared" ref="E29" si="102">SUM(E28+D29)</f>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F29" s="3">
         <v>6</v>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="AK29" s="7">
         <f t="shared" ref="AK29" si="120">SUM(E29+I29+M29+Q29+U29+Y29+AC29+AG29)</f>
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="AL29" s="28">
         <v>100</v>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="E30" s="7">
         <f t="shared" ref="E30" si="122">SUM(E29+D30)</f>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F30" s="3">
         <v>6</v>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="AK30" s="7">
         <f t="shared" ref="AK30" si="140">SUM(E30+I30+M30+Q30+U30+Y30+AC30+AG30)</f>
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AL30" s="28">
         <v>106</v>
@@ -4888,11 +4888,11 @@
         <v>302</v>
       </c>
       <c r="D31" s="6">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" ref="E31" si="142">SUM(E30+D31)</f>
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F31" s="3">
         <v>16</v>
@@ -5002,11 +5002,11 @@
       </c>
       <c r="AJ31" s="6">
         <f t="shared" ref="AJ31" si="159">SUM(D31+L31+P31+T31+X31+AB31+AF31)</f>
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="AK31" s="7">
         <f t="shared" ref="AK31" si="160">SUM(E31+I31+M31+Q31+U31+Y31+AC31+AG31)</f>
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="AL31" s="28">
         <v>133</v>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="E32" s="7">
         <f t="shared" ref="E32:E33" si="162">SUM(E31+D32)</f>
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F32" s="3">
         <v>4</v>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="AK32" s="7">
         <f t="shared" ref="AK32:AK33" si="180">SUM(E32+I32+M32+Q32+U32+Y32+AC32+AG32)</f>
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="AL32" s="28">
         <v>152</v>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="E33" s="7">
         <f t="shared" si="162"/>
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F33" s="3">
         <v>13</v>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="AK33" s="7">
         <f t="shared" si="180"/>
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="AL33" s="28">
         <v>181</v>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="E34" s="7">
         <f t="shared" ref="E34" si="182">SUM(E33+D34)</f>
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F34" s="3">
         <v>5</v>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="AK34" s="7">
         <f t="shared" ref="AK34" si="200">SUM(E34+I34+M34+Q34+U34+Y34+AC34+AG34)</f>
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="AL34" s="28">
         <v>200</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="E35" s="7">
         <f t="shared" ref="E35:E36" si="202">SUM(E34+D35)</f>
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F35" s="3">
         <v>9</v>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="AK35" s="7">
         <f t="shared" ref="AK35:AK36" si="220">SUM(E35+I35+M35+Q35+U35+Y35+AC35+AG35)</f>
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="AL35" s="28">
         <v>208</v>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="E36" s="7">
         <f t="shared" si="202"/>
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F36" s="3">
         <v>5</v>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="AK36" s="7">
         <f t="shared" si="220"/>
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="AL36" s="28">
         <v>218</v>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="E37" s="7">
         <f t="shared" ref="E37" si="222">SUM(E36+D37)</f>
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F37" s="3">
         <v>6</v>
@@ -5839,8 +5839,8 @@
         <v>4</v>
       </c>
       <c r="AK37" s="7">
-        <f t="shared" ref="AK37" si="240">SUM(E37+I37+M37+Q37+U37+Y37+AC37+AG37)</f>
-        <v>298</v>
+        <f t="shared" ref="AK37:AK41" si="240">SUM(E37+I37+M37+Q37+U37+Y37+AC37+AG37)</f>
+        <v>267</v>
       </c>
       <c r="AL37" s="28">
         <v>228</v>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="E38" s="7">
         <f t="shared" ref="E38" si="242">SUM(E37+D38)</f>
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F38" s="3">
         <v>9</v>
@@ -5945,11 +5945,11 @@
         <v>223</v>
       </c>
       <c r="AB38" s="26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC38" s="7">
         <f t="shared" ref="AC38" si="254">SUM(AC37+AB38)</f>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AD38" s="3">
         <v>1</v>
@@ -5975,11 +5975,11 @@
       </c>
       <c r="AJ38" s="6">
         <f t="shared" ref="AJ38" si="259">SUM(D38+L38+P38+T38+X38+AB38+AF38)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AK38" s="7">
-        <f t="shared" ref="AK38" si="260">SUM(E38+I38+M38+Q38+U38+Y38+AC38+AG38)</f>
-        <v>300</v>
+        <f t="shared" si="240"/>
+        <v>279</v>
       </c>
       <c r="AL38" s="28">
         <v>258</v>
@@ -5996,112 +5996,129 @@
         <v>4</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" ref="C39" si="261">SUM(C38+B39)</f>
+        <f t="shared" ref="C39" si="260">SUM(C38+B39)</f>
         <v>355</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="6">
+        <v>-3</v>
+      </c>
       <c r="E39" s="7">
-        <f t="shared" ref="E39" si="262">SUM(E38+D39)</f>
-        <v>59</v>
+        <f t="shared" ref="E39" si="261">SUM(E38+D39)</f>
+        <v>25</v>
       </c>
       <c r="F39" s="3">
         <v>5</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" ref="G39" si="263">SUM(G38+F39)</f>
+        <f t="shared" ref="G39" si="262">SUM(G38+F39)</f>
         <v>180</v>
       </c>
-      <c r="H39" s="6"/>
+      <c r="H39" s="6">
+        <v>2</v>
+      </c>
       <c r="I39" s="7">
-        <f t="shared" ref="I39" si="264">SUM(I38+H39)</f>
-        <v>15</v>
+        <f t="shared" ref="I39" si="263">SUM(I38+H39)</f>
+        <v>17</v>
       </c>
       <c r="J39" s="3">
         <v>14</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" ref="K39" si="265">SUM(K38+J39)</f>
+        <f t="shared" ref="K39" si="264">SUM(K38+J39)</f>
         <v>157</v>
       </c>
-      <c r="L39" s="6"/>
+      <c r="L39" s="6">
+        <v>4</v>
+      </c>
       <c r="M39" s="7">
-        <f t="shared" ref="M39" si="266">SUM(M38+L39)</f>
-        <v>42</v>
+        <f t="shared" ref="M39" si="265">SUM(M38+L39)</f>
+        <v>46</v>
       </c>
       <c r="N39" s="3">
         <v>0</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" ref="O39" si="267">SUM(O38+N39)</f>
+        <f t="shared" ref="O39" si="266">SUM(O38+N39)</f>
         <v>39</v>
       </c>
-      <c r="P39" s="6"/>
+      <c r="P39" s="6">
+        <v>0</v>
+      </c>
       <c r="Q39" s="7">
-        <f t="shared" ref="Q39" si="268">SUM(Q38+P39)</f>
+        <f t="shared" ref="Q39" si="267">SUM(Q38+P39)</f>
         <v>10</v>
       </c>
       <c r="R39" s="3">
         <v>37</v>
       </c>
       <c r="S39" s="5">
-        <f t="shared" ref="S39" si="269">SUM(S38+R39)</f>
+        <f t="shared" ref="S39" si="268">SUM(S38+R39)</f>
         <v>1013</v>
       </c>
-      <c r="T39" s="6"/>
+      <c r="T39" s="6">
+        <v>4</v>
+      </c>
       <c r="U39" s="7">
-        <f t="shared" ref="U39" si="270">SUM(U38+T39)</f>
-        <v>80</v>
+        <f t="shared" ref="U39" si="269">SUM(U38+T39)</f>
+        <v>84</v>
       </c>
       <c r="V39" s="3">
         <v>2</v>
       </c>
       <c r="W39" s="5">
-        <f t="shared" ref="W39" si="271">SUM(W38+V39)</f>
+        <f t="shared" ref="W39" si="270">SUM(W38+V39)</f>
         <v>62</v>
       </c>
-      <c r="X39" s="26"/>
+      <c r="X39" s="26">
+        <v>-2</v>
+      </c>
       <c r="Y39" s="7">
-        <f t="shared" ref="Y39" si="272">SUM(Y38+X39)</f>
-        <v>14</v>
+        <f t="shared" ref="Y39" si="271">SUM(Y38+X39)</f>
+        <v>12</v>
       </c>
       <c r="Z39" s="3">
         <v>3</v>
       </c>
       <c r="AA39" s="5">
-        <f t="shared" ref="AA39" si="273">SUM(AA38+Z39)</f>
+        <f t="shared" ref="AA39" si="272">SUM(AA38+Z39)</f>
         <v>226</v>
       </c>
-      <c r="AB39" s="26"/>
+      <c r="AB39" s="26">
+        <v>4</v>
+      </c>
       <c r="AC39" s="7">
-        <f t="shared" ref="AC39" si="274">SUM(AC38+AB39)</f>
-        <v>69</v>
+        <f t="shared" ref="AC39" si="273">SUM(AC38+AB39)</f>
+        <v>83</v>
       </c>
       <c r="AD39" s="3">
         <v>3</v>
       </c>
       <c r="AE39" s="5">
-        <f t="shared" ref="AE39" si="275">SUM(AE38+AD39)</f>
+        <f t="shared" ref="AE39" si="274">SUM(AE38+AD39)</f>
         <v>152</v>
       </c>
-      <c r="AF39" s="26"/>
+      <c r="AF39" s="26">
+        <v>1</v>
+      </c>
       <c r="AG39" s="7">
-        <f t="shared" ref="AG39" si="276">SUM(AG38+AF39)</f>
-        <v>11</v>
+        <f t="shared" ref="AG39" si="275">SUM(AG38+AF39)</f>
+        <v>12</v>
       </c>
       <c r="AH39" s="8">
-        <f t="shared" ref="AH39" si="277">SUM(B39+F39+J39+N39+R39+V39+Z39+AD39)</f>
+        <f t="shared" ref="AH39" si="276">SUM(B39+F39+J39+N39+R39+V39+Z39+AD39)</f>
         <v>68</v>
       </c>
       <c r="AI39" s="5">
-        <f t="shared" ref="AI39" si="278">SUM(AI38+AH39)</f>
+        <f t="shared" ref="AI39" si="277">SUM(AI38+AH39)</f>
         <v>2184</v>
       </c>
       <c r="AJ39" s="6">
-        <f t="shared" ref="AJ39" si="279">SUM(D39+L39+P39+T39+X39+AB39+AF39)</f>
-        <v>0</v>
+        <f t="shared" ref="AJ39" si="278">SUM(D39+L39+P39+T39+X39+AB39+AF39)</f>
+        <v>8</v>
       </c>
       <c r="AK39" s="7">
-        <v>282</v>
+        <f t="shared" si="240"/>
+        <v>289</v>
       </c>
       <c r="AL39" s="28">
         <v>271</v>
@@ -6118,112 +6135,129 @@
         <v>4</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" ref="C40" si="280">SUM(C39+B40)</f>
+        <f t="shared" ref="C40" si="279">SUM(C39+B40)</f>
         <v>359</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
       <c r="E40" s="7">
-        <f t="shared" ref="E40" si="281">SUM(E39+D40)</f>
-        <v>59</v>
+        <f t="shared" ref="E40:E41" si="280">SUM(E39+D40)</f>
+        <v>25</v>
       </c>
       <c r="F40" s="3">
         <v>18</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" ref="G40" si="282">SUM(G39+F40)</f>
+        <f t="shared" ref="G40" si="281">SUM(G39+F40)</f>
         <v>198</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="6">
+        <v>2</v>
+      </c>
       <c r="I40" s="7">
-        <f t="shared" ref="I40" si="283">SUM(I39+H40)</f>
-        <v>15</v>
+        <f t="shared" ref="I40" si="282">SUM(I39+H40)</f>
+        <v>19</v>
       </c>
       <c r="J40" s="3">
         <v>6</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" ref="K40" si="284">SUM(K39+J40)</f>
+        <f t="shared" ref="K40" si="283">SUM(K39+J40)</f>
         <v>163</v>
       </c>
-      <c r="L40" s="6"/>
+      <c r="L40" s="6">
+        <v>4</v>
+      </c>
       <c r="M40" s="7">
-        <f t="shared" ref="M40" si="285">SUM(M39+L40)</f>
-        <v>42</v>
+        <f t="shared" ref="M40" si="284">SUM(M39+L40)</f>
+        <v>50</v>
       </c>
       <c r="N40" s="3">
         <v>1</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" ref="O40" si="286">SUM(O39+N40)</f>
+        <f t="shared" ref="O40:O41" si="285">SUM(O39+N40)</f>
         <v>40</v>
       </c>
-      <c r="P40" s="6"/>
+      <c r="P40" s="6">
+        <v>0</v>
+      </c>
       <c r="Q40" s="7">
-        <f t="shared" ref="Q40" si="287">SUM(Q39+P40)</f>
+        <f t="shared" ref="Q40" si="286">SUM(Q39+P40)</f>
         <v>10</v>
       </c>
       <c r="R40" s="3">
         <v>42</v>
       </c>
       <c r="S40" s="5">
-        <f t="shared" ref="S40" si="288">SUM(S39+R40)</f>
+        <f t="shared" ref="S40" si="287">SUM(S39+R40)</f>
         <v>1055</v>
       </c>
-      <c r="T40" s="6"/>
+      <c r="T40" s="6">
+        <v>3</v>
+      </c>
       <c r="U40" s="7">
-        <f t="shared" ref="U40" si="289">SUM(U39+T40)</f>
-        <v>80</v>
+        <f t="shared" ref="U40" si="288">SUM(U39+T40)</f>
+        <v>87</v>
       </c>
       <c r="V40" s="3">
         <v>1</v>
       </c>
       <c r="W40" s="5">
-        <f t="shared" ref="W40" si="290">SUM(W39+V40)</f>
+        <f t="shared" ref="W40" si="289">SUM(W39+V40)</f>
         <v>63</v>
       </c>
-      <c r="X40" s="26"/>
+      <c r="X40" s="26">
+        <v>-2</v>
+      </c>
       <c r="Y40" s="7">
-        <f t="shared" ref="Y40" si="291">SUM(Y39+X40)</f>
-        <v>14</v>
+        <f t="shared" ref="Y40" si="290">SUM(Y39+X40)</f>
+        <v>10</v>
       </c>
       <c r="Z40" s="3">
         <v>14</v>
       </c>
       <c r="AA40" s="5">
-        <f t="shared" ref="AA40" si="292">SUM(AA39+Z40)</f>
+        <f t="shared" ref="AA40" si="291">SUM(AA39+Z40)</f>
         <v>240</v>
       </c>
-      <c r="AB40" s="26"/>
+      <c r="AB40" s="26">
+        <v>3</v>
+      </c>
       <c r="AC40" s="7">
-        <f t="shared" ref="AC40" si="293">SUM(AC39+AB40)</f>
-        <v>69</v>
+        <f t="shared" ref="AC40" si="292">SUM(AC39+AB40)</f>
+        <v>86</v>
       </c>
       <c r="AD40" s="3">
         <v>3</v>
       </c>
       <c r="AE40" s="5">
-        <f t="shared" ref="AE40" si="294">SUM(AE39+AD40)</f>
+        <f t="shared" ref="AE40" si="293">SUM(AE39+AD40)</f>
         <v>155</v>
       </c>
-      <c r="AF40" s="26"/>
+      <c r="AF40" s="26">
+        <v>1</v>
+      </c>
       <c r="AG40" s="7">
-        <f t="shared" ref="AG40" si="295">SUM(AG39+AF40)</f>
-        <v>11</v>
+        <f t="shared" ref="AG40" si="294">SUM(AG39+AF40)</f>
+        <v>13</v>
       </c>
       <c r="AH40" s="8">
-        <f t="shared" ref="AH40" si="296">SUM(B40+F40+J40+N40+R40+V40+Z40+AD40)</f>
+        <f t="shared" ref="AH40" si="295">SUM(B40+F40+J40+N40+R40+V40+Z40+AD40)</f>
         <v>89</v>
       </c>
       <c r="AI40" s="5">
-        <f t="shared" ref="AI40" si="297">SUM(AI39+AH40)</f>
+        <f t="shared" ref="AI40" si="296">SUM(AI39+AH40)</f>
         <v>2273</v>
       </c>
       <c r="AJ40" s="6">
-        <f t="shared" ref="AJ40" si="298">SUM(D40+L40+P40+T40+X40+AB40+AF40)</f>
-        <v>0</v>
+        <f t="shared" ref="AJ40" si="297">SUM(D40+L40+P40+T40+X40+AB40+AF40)</f>
+        <v>9</v>
       </c>
       <c r="AK40" s="7">
-        <v>282</v>
+        <f t="shared" si="240"/>
+        <v>300</v>
       </c>
       <c r="AL40" s="28">
         <v>283</v>
@@ -6232,10 +6266,561 @@
         <v>381</v>
       </c>
     </row>
-    <row r="41" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="25">
+        <v>43931</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" ref="C41" si="298">SUM(C40+B41)</f>
+        <v>361</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="280"/>
+        <v>25</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" ref="G41" si="299">SUM(G40+F41)</f>
+        <v>198</v>
+      </c>
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" ref="I41" si="300">SUM(I40+H41)</f>
+        <v>20</v>
+      </c>
+      <c r="J41" s="3">
+        <v>6</v>
+      </c>
+      <c r="K41" s="5">
+        <f t="shared" ref="K41" si="301">SUM(K40+J41)</f>
+        <v>169</v>
+      </c>
+      <c r="L41" s="6">
+        <v>2</v>
+      </c>
+      <c r="M41" s="7">
+        <f t="shared" ref="M41" si="302">SUM(M40+L41)</f>
+        <v>52</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="285"/>
+        <v>40</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7">
+        <f t="shared" ref="Q41" si="303">SUM(Q40+P41)</f>
+        <v>10</v>
+      </c>
+      <c r="R41" s="3">
+        <v>30</v>
+      </c>
+      <c r="S41" s="5">
+        <f t="shared" ref="S41" si="304">SUM(S40+R41)</f>
+        <v>1085</v>
+      </c>
+      <c r="T41" s="6">
+        <v>3</v>
+      </c>
+      <c r="U41" s="7">
+        <f t="shared" ref="U41" si="305">SUM(U40+T41)</f>
+        <v>90</v>
+      </c>
+      <c r="V41" s="3">
+        <v>5</v>
+      </c>
+      <c r="W41" s="5">
+        <f t="shared" ref="W41" si="306">SUM(W40+V41)</f>
+        <v>68</v>
+      </c>
+      <c r="X41" s="26">
+        <v>-1</v>
+      </c>
+      <c r="Y41" s="7">
+        <f t="shared" ref="Y41" si="307">SUM(Y40+X41)</f>
+        <v>9</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>16</v>
+      </c>
+      <c r="AA41" s="5">
+        <f t="shared" ref="AA41" si="308">SUM(AA40+Z41)</f>
+        <v>256</v>
+      </c>
+      <c r="AB41" s="26">
+        <v>3</v>
+      </c>
+      <c r="AC41" s="7">
+        <f t="shared" ref="AC41" si="309">SUM(AC40+AB41)</f>
+        <v>89</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE41" s="5">
+        <f t="shared" ref="AE41" si="310">SUM(AE40+AD41)</f>
+        <v>159</v>
+      </c>
+      <c r="AF41" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="7">
+        <f t="shared" ref="AG41" si="311">SUM(AG40+AF41)</f>
+        <v>13</v>
+      </c>
+      <c r="AH41" s="8">
+        <f t="shared" ref="AH41" si="312">SUM(B41+F41+J41+N41+R41+V41+Z41+AD41)</f>
+        <v>63</v>
+      </c>
+      <c r="AI41" s="5">
+        <f t="shared" ref="AI41" si="313">SUM(AI40+AH41)</f>
+        <v>2336</v>
+      </c>
+      <c r="AJ41" s="6">
+        <f t="shared" ref="AJ41" si="314">SUM(D41+L41+P41+T41+X41+AB41+AF41)</f>
+        <v>7</v>
+      </c>
+      <c r="AK41" s="7">
+        <f t="shared" si="240"/>
+        <v>308</v>
+      </c>
+      <c r="AL41" s="28">
+        <v>311</v>
+      </c>
+      <c r="AM41" s="30">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="25">
+        <v>43932</v>
+      </c>
+      <c r="B42" s="3">
+        <v>19</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" ref="C42:C44" si="315">SUM(C41+B42)</f>
+        <v>380</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" ref="E42:E44" si="316">SUM(E41+D42)</f>
+        <v>25</v>
+      </c>
+      <c r="F42" s="3">
+        <v>29</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" ref="G42:G44" si="317">SUM(G41+F42)</f>
+        <v>227</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" ref="I42:I44" si="318">SUM(I41+H42)</f>
+        <v>20</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" ref="K42:K44" si="319">SUM(K41+J42)</f>
+        <v>174</v>
+      </c>
+      <c r="L42" s="6">
+        <v>3</v>
+      </c>
+      <c r="M42" s="7">
+        <f t="shared" ref="M42:M44" si="320">SUM(M41+L42)</f>
+        <v>55</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" ref="O42:O44" si="321">SUM(O41+N42)</f>
+        <v>40</v>
+      </c>
+      <c r="P42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="7">
+        <f t="shared" ref="Q42:Q44" si="322">SUM(Q41+P42)</f>
+        <v>10</v>
+      </c>
+      <c r="R42" s="3">
+        <v>59</v>
+      </c>
+      <c r="S42" s="5">
+        <f t="shared" ref="S42:S44" si="323">SUM(S41+R42)</f>
+        <v>1144</v>
+      </c>
+      <c r="T42" s="6">
+        <v>0</v>
+      </c>
+      <c r="U42" s="7">
+        <f t="shared" ref="U42:U44" si="324">SUM(U41+T42)</f>
+        <v>90</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="5">
+        <f t="shared" ref="W42:W44" si="325">SUM(W41+V42)</f>
+        <v>68</v>
+      </c>
+      <c r="X42" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="7">
+        <f t="shared" ref="Y42:Y44" si="326">SUM(Y41+X42)</f>
+        <v>11</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>24</v>
+      </c>
+      <c r="AA42" s="5">
+        <f t="shared" ref="AA42:AA44" si="327">SUM(AA41+Z42)</f>
+        <v>280</v>
+      </c>
+      <c r="AB42" s="26">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="7">
+        <f t="shared" ref="AC42:AC44" si="328">SUM(AC41+AB42)</f>
+        <v>91</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>14</v>
+      </c>
+      <c r="AE42" s="5">
+        <f t="shared" ref="AE42:AE44" si="329">SUM(AE41+AD42)</f>
+        <v>173</v>
+      </c>
+      <c r="AF42" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="7">
+        <f t="shared" ref="AG42:AG44" si="330">SUM(AG41+AF42)</f>
+        <v>13</v>
+      </c>
+      <c r="AH42" s="8">
+        <f t="shared" ref="AH42:AH44" si="331">SUM(B42+F42+J42+N42+R42+V42+Z42+AD42)</f>
+        <v>150</v>
+      </c>
+      <c r="AI42" s="5">
+        <f t="shared" ref="AI42:AI44" si="332">SUM(AI41+AH42)</f>
+        <v>2486</v>
+      </c>
+      <c r="AJ42" s="6">
+        <f t="shared" ref="AJ42:AJ44" si="333">SUM(D42+L42+P42+T42+X42+AB42+AF42)</f>
+        <v>7</v>
+      </c>
+      <c r="AK42" s="7">
+        <f t="shared" ref="AK42:AK44" si="334">SUM(E42+I42+M42+Q42+U42+Y42+AC42+AG42)</f>
+        <v>315</v>
+      </c>
+      <c r="AL42" s="28">
+        <v>325</v>
+      </c>
+      <c r="AM42" s="30">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="25">
+        <v>43933</v>
+      </c>
+      <c r="B43" s="3">
+        <v>12</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="315"/>
+        <v>392</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="316"/>
+        <v>25</v>
+      </c>
+      <c r="F43" s="3">
+        <v>17</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="317"/>
+        <v>244</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="318"/>
+        <v>20</v>
+      </c>
+      <c r="J43" s="3">
+        <v>9</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" si="319"/>
+        <v>183</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <f t="shared" si="320"/>
+        <v>55</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="321"/>
+        <v>40</v>
+      </c>
+      <c r="P43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7">
+        <f t="shared" si="322"/>
+        <v>10</v>
+      </c>
+      <c r="R43" s="3">
+        <v>20</v>
+      </c>
+      <c r="S43" s="5">
+        <f t="shared" si="323"/>
+        <v>1164</v>
+      </c>
+      <c r="T43" s="6">
+        <v>2</v>
+      </c>
+      <c r="U43" s="7">
+        <f t="shared" si="324"/>
+        <v>92</v>
+      </c>
+      <c r="V43" s="3">
+        <v>5</v>
+      </c>
+      <c r="W43" s="5">
+        <f t="shared" si="325"/>
+        <v>73</v>
+      </c>
+      <c r="X43" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="7">
+        <f t="shared" si="326"/>
+        <v>11</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA43" s="5">
+        <f t="shared" si="327"/>
+        <v>283</v>
+      </c>
+      <c r="AB43" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="7">
+        <f t="shared" si="328"/>
+        <v>92</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>28</v>
+      </c>
+      <c r="AE43" s="5">
+        <f t="shared" si="329"/>
+        <v>201</v>
+      </c>
+      <c r="AF43" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="7">
+        <f t="shared" si="330"/>
+        <v>14</v>
+      </c>
+      <c r="AH43" s="8">
+        <f t="shared" si="331"/>
+        <v>94</v>
+      </c>
+      <c r="AI43" s="5">
+        <f t="shared" si="332"/>
+        <v>2580</v>
+      </c>
+      <c r="AJ43" s="6">
+        <f t="shared" si="333"/>
+        <v>4</v>
+      </c>
+      <c r="AK43" s="7">
+        <f t="shared" si="334"/>
+        <v>319</v>
+      </c>
+      <c r="AL43" s="28">
+        <v>312</v>
+      </c>
+      <c r="AM43" s="30">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="25">
+        <v>43934</v>
+      </c>
+      <c r="B44" s="3">
+        <v>17</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="315"/>
+        <v>409</v>
+      </c>
+      <c r="D44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="316"/>
+        <v>24</v>
+      </c>
+      <c r="F44" s="3">
+        <v>5</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="317"/>
+        <v>249</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="318"/>
+        <v>20</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" si="319"/>
+        <v>184</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <f t="shared" si="320"/>
+        <v>55</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="321"/>
+        <v>40</v>
+      </c>
+      <c r="P44" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="7">
+        <f t="shared" si="322"/>
+        <v>10</v>
+      </c>
+      <c r="R44" s="3">
+        <v>36</v>
+      </c>
+      <c r="S44" s="5">
+        <f t="shared" si="323"/>
+        <v>1200</v>
+      </c>
+      <c r="T44" s="6">
+        <v>3</v>
+      </c>
+      <c r="U44" s="7">
+        <f t="shared" si="324"/>
+        <v>95</v>
+      </c>
+      <c r="V44" s="3">
+        <v>6</v>
+      </c>
+      <c r="W44" s="5">
+        <f t="shared" si="325"/>
+        <v>79</v>
+      </c>
+      <c r="X44" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>10</v>
+      </c>
+      <c r="AA44" s="5">
+        <f t="shared" si="327"/>
+        <v>293</v>
+      </c>
+      <c r="AB44" s="26">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="7">
+        <f t="shared" si="328"/>
+        <v>94</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE44" s="5">
+        <f t="shared" si="329"/>
+        <v>204</v>
+      </c>
+      <c r="AF44" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="7">
+        <f t="shared" si="330"/>
+        <v>15</v>
+      </c>
+      <c r="AH44" s="8">
+        <f t="shared" si="331"/>
+        <v>78</v>
+      </c>
+      <c r="AI44" s="5">
+        <f t="shared" si="332"/>
+        <v>2658</v>
+      </c>
+      <c r="AJ44" s="6">
+        <f t="shared" si="333"/>
+        <v>5</v>
+      </c>
+      <c r="AK44" s="7">
+        <f t="shared" si="334"/>
+        <v>313</v>
+      </c>
+      <c r="AL44" s="28">
+        <v>321</v>
+      </c>
+      <c r="AM44" s="30">
+        <v>511</v>
+      </c>
+    </row>
     <row r="45" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/evolution_coronavirus.xlsx
+++ b/evolution_coronavirus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFC6489-151C-614B-8805-F1789FB88222}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0480F448-5E1D-F64F-806B-51E31E768B04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16600" xr2:uid="{1AB0A3F3-C4EC-2847-A999-E7691A276297}"/>
   </bookViews>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD3C780-211D-6A4A-8E34-F58EFCCD0A14}">
   <dimension ref="A1:AQ375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF3" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN43" sqref="AN43"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM46" sqref="AM46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6139,11 +6139,11 @@
         <v>359</v>
       </c>
       <c r="D40" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" s="7">
         <f t="shared" ref="E40:E41" si="280">SUM(E39+D40)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F40" s="3">
         <v>18</v>
@@ -6153,11 +6153,11 @@
         <v>198</v>
       </c>
       <c r="H40" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" ref="I40" si="282">SUM(I39+H40)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J40" s="3">
         <v>6</v>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="AJ40" s="6">
         <f t="shared" ref="AJ40" si="297">SUM(D40+L40+P40+T40+X40+AB40+AF40)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK40" s="7">
         <f t="shared" si="240"/>
@@ -6278,11 +6278,11 @@
         <v>361</v>
       </c>
       <c r="D41" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="7">
         <f t="shared" si="280"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -6292,11 +6292,11 @@
         <v>198</v>
       </c>
       <c r="H41" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" ref="I41" si="300">SUM(I40+H41)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J41" s="3">
         <v>6</v>
@@ -6392,11 +6392,11 @@
       </c>
       <c r="AJ41" s="6">
         <f t="shared" ref="AJ41" si="314">SUM(D41+L41+P41+T41+X41+AB41+AF41)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK41" s="7">
         <f t="shared" si="240"/>
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL41" s="28">
         <v>311</v>
@@ -6417,11 +6417,11 @@
         <v>380</v>
       </c>
       <c r="D42" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" ref="E42:E44" si="316">SUM(E41+D42)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F42" s="3">
         <v>29</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="I42" s="7">
         <f t="shared" ref="I42:I44" si="318">SUM(I41+H42)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J42" s="3">
         <v>5</v>
@@ -6531,11 +6531,11 @@
       </c>
       <c r="AJ42" s="6">
         <f t="shared" ref="AJ42:AJ44" si="333">SUM(D42+L42+P42+T42+X42+AB42+AF42)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK42" s="7">
         <f t="shared" ref="AK42:AK44" si="334">SUM(E42+I42+M42+Q42+U42+Y42+AC42+AG42)</f>
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL42" s="28">
         <v>325</v>
@@ -6556,11 +6556,11 @@
         <v>392</v>
       </c>
       <c r="D43" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="7">
         <f t="shared" si="316"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F43" s="3">
         <v>17</v>
@@ -6574,7 +6574,7 @@
       </c>
       <c r="I43" s="7">
         <f t="shared" si="318"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J43" s="3">
         <v>9</v>
@@ -6670,11 +6670,11 @@
       </c>
       <c r="AJ43" s="6">
         <f t="shared" si="333"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK43" s="7">
         <f t="shared" si="334"/>
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AL43" s="28">
         <v>312</v>
@@ -6695,11 +6695,11 @@
         <v>409</v>
       </c>
       <c r="D44" s="6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E44" s="7">
         <f t="shared" si="316"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F44" s="3">
         <v>5</v>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="I44" s="7">
         <f t="shared" si="318"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J44" s="3">
         <v>1</v>
@@ -6768,7 +6768,8 @@
         <v>0</v>
       </c>
       <c r="Y44" s="7">
-        <v>0</v>
+        <f t="shared" si="326"/>
+        <v>11</v>
       </c>
       <c r="Z44" s="3">
         <v>10</v>
@@ -6808,11 +6809,11 @@
       </c>
       <c r="AJ44" s="6">
         <f t="shared" si="333"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK44" s="7">
         <f t="shared" si="334"/>
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="AL44" s="28">
         <v>321</v>
@@ -6821,8 +6822,284 @@
         <v>511</v>
       </c>
     </row>
-    <row r="45" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="25">
+        <v>43935</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5">
+        <f>SUM(C44+B45)</f>
+        <v>410</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2</v>
+      </c>
+      <c r="E45" s="7">
+        <f>SUM(E44+D45)</f>
+        <v>34</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="5">
+        <f>SUM(G44+F45)</f>
+        <v>251</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="I45" s="7">
+        <f>SUM(I44+H45)</f>
+        <v>18</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2</v>
+      </c>
+      <c r="K45" s="5">
+        <f>SUM(K44+J45)</f>
+        <v>186</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <f>SUM(M44+L45)</f>
+        <v>55</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="5">
+        <f>SUM(O44+N45)</f>
+        <v>40</v>
+      </c>
+      <c r="P45" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="7">
+        <f>SUM(Q44+P45)</f>
+        <v>10</v>
+      </c>
+      <c r="R45" s="3">
+        <v>11</v>
+      </c>
+      <c r="S45" s="5">
+        <f>SUM(S44+R45)</f>
+        <v>1211</v>
+      </c>
+      <c r="T45" s="6">
+        <v>0</v>
+      </c>
+      <c r="U45" s="7">
+        <f>SUM(U44+T45)</f>
+        <v>95</v>
+      </c>
+      <c r="V45" s="3">
+        <v>2</v>
+      </c>
+      <c r="W45" s="5">
+        <f>SUM(W44+V45)</f>
+        <v>81</v>
+      </c>
+      <c r="X45" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y45" s="7">
+        <f>SUM(Y44+X45)</f>
+        <v>13</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA45" s="5">
+        <f>SUM(AA44+Z45)</f>
+        <v>299</v>
+      </c>
+      <c r="AB45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="7">
+        <f>SUM(AC44+AB45)</f>
+        <v>94</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE45" s="5">
+        <f>SUM(AE44+AD45)</f>
+        <v>206</v>
+      </c>
+      <c r="AF45" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="7">
+        <f>SUM(AG44+AF45)</f>
+        <v>15</v>
+      </c>
+      <c r="AH45" s="8">
+        <f t="shared" ref="AH45" si="335">SUM(B45+F45+J45+N45+R45+V45+Z45+AD45)</f>
+        <v>26</v>
+      </c>
+      <c r="AI45" s="5">
+        <f>SUM(AI44+AH45)</f>
+        <v>2684</v>
+      </c>
+      <c r="AJ45" s="6">
+        <f t="shared" ref="AJ45" si="336">SUM(D45+L45+P45+T45+X45+AB45+AF45)</f>
+        <v>4</v>
+      </c>
+      <c r="AK45" s="7">
+        <f t="shared" ref="AK45" si="337">SUM(E45+I45+M45+Q45+U45+Y45+AC45+AG45)</f>
+        <v>334</v>
+      </c>
+      <c r="AL45" s="28">
+        <v>334</v>
+      </c>
+      <c r="AM45" s="30">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="25">
+        <v>43936</v>
+      </c>
+      <c r="B46" s="3">
+        <v>7</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" ref="C46" si="338">SUM(C45+B46)</f>
+        <v>417</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" ref="E46" si="339">SUM(E45+D46)</f>
+        <v>36</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" ref="G46" si="340">SUM(G45+F46)</f>
+        <v>252</v>
+      </c>
+      <c r="H46" s="26">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" ref="I46" si="341">SUM(I45+H46)</f>
+        <v>18</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" ref="K46" si="342">SUM(K45+J46)</f>
+        <v>193</v>
+      </c>
+      <c r="L46" s="6">
+        <v>1</v>
+      </c>
+      <c r="M46" s="7">
+        <f t="shared" ref="M46" si="343">SUM(M45+L46)</f>
+        <v>56</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" ref="O46" si="344">SUM(O45+N46)</f>
+        <v>40</v>
+      </c>
+      <c r="P46" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7">
+        <f t="shared" ref="Q46" si="345">SUM(Q45+P46)</f>
+        <v>10</v>
+      </c>
+      <c r="R46" s="3">
+        <v>51</v>
+      </c>
+      <c r="S46" s="5">
+        <f t="shared" ref="S46" si="346">SUM(S45+R46)</f>
+        <v>1262</v>
+      </c>
+      <c r="T46" s="6">
+        <v>6</v>
+      </c>
+      <c r="U46" s="7">
+        <f t="shared" ref="U46" si="347">SUM(U45+T46)</f>
+        <v>101</v>
+      </c>
+      <c r="V46" s="3">
+        <v>4</v>
+      </c>
+      <c r="W46" s="5">
+        <f t="shared" ref="W46" si="348">SUM(W45+V46)</f>
+        <v>85</v>
+      </c>
+      <c r="X46" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="7">
+        <f t="shared" ref="Y46" si="349">SUM(Y45+X46)</f>
+        <v>15</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA46" s="5">
+        <f t="shared" ref="AA46" si="350">SUM(AA45+Z46)</f>
+        <v>301</v>
+      </c>
+      <c r="AB46" s="26">
+        <v>-1</v>
+      </c>
+      <c r="AC46" s="7">
+        <f t="shared" ref="AC46" si="351">SUM(AC45+AB46)</f>
+        <v>93</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE46" s="5">
+        <f t="shared" ref="AE46" si="352">SUM(AE45+AD46)</f>
+        <v>212</v>
+      </c>
+      <c r="AF46" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="7">
+        <f t="shared" ref="AG46" si="353">SUM(AG45+AF46)</f>
+        <v>15</v>
+      </c>
+      <c r="AH46" s="8">
+        <f t="shared" ref="AH46" si="354">SUM(B46+F46+J46+N46+R46+V46+Z46+AD46)</f>
+        <v>78</v>
+      </c>
+      <c r="AI46" s="5">
+        <f t="shared" ref="AI46" si="355">SUM(AI45+AH46)</f>
+        <v>2762</v>
+      </c>
+      <c r="AJ46" s="6">
+        <f t="shared" ref="AJ46" si="356">SUM(D46+L46+P46+T46+X46+AB46+AF46)</f>
+        <v>10</v>
+      </c>
+      <c r="AK46" s="7">
+        <f t="shared" ref="AK46" si="357">SUM(E46+I46+M46+Q46+U46+Y46+AC46+AG46)</f>
+        <v>344</v>
+      </c>
+      <c r="AL46" s="28">
+        <v>342</v>
+      </c>
+      <c r="AM46" s="30">
+        <v>615</v>
+      </c>
+    </row>
     <row r="47" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="49" s="14" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/evolution_coronavirus.xlsx
+++ b/evolution_coronavirus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiercanalesluna/Desktop/Documentos/repositories/covid19_extremadura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0480F448-5E1D-F64F-806B-51E31E768B04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB07830C-31C3-F048-9AC3-A27A9B07253F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16600" xr2:uid="{1AB0A3F3-C4EC-2847-A999-E7691A276297}"/>
   </bookViews>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD3C780-211D-6A4A-8E34-F58EFCCD0A14}">
   <dimension ref="A1:AQ375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM46" sqref="AM46"/>
+    <sheetView tabSelected="1" topLeftCell="AH21" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL52" sqref="AL52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6413,56 +6413,56 @@
         <v>19</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" ref="C42:C44" si="315">SUM(C41+B42)</f>
+        <f t="shared" ref="C42:C53" si="315">SUM(C41+B42)</f>
         <v>380</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" ref="E42:E44" si="316">SUM(E41+D42)</f>
+        <f t="shared" ref="E42:E53" si="316">SUM(E41+D42)</f>
         <v>30</v>
       </c>
       <c r="F42" s="3">
         <v>29</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" ref="G42:G44" si="317">SUM(G41+F42)</f>
+        <f t="shared" ref="G42:G53" si="317">SUM(G41+F42)</f>
         <v>227</v>
       </c>
       <c r="H42" s="6">
         <v>0</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" ref="I42:I44" si="318">SUM(I41+H42)</f>
+        <f t="shared" ref="I42:I53" si="318">SUM(I41+H42)</f>
         <v>17</v>
       </c>
       <c r="J42" s="3">
         <v>5</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" ref="K42:K44" si="319">SUM(K41+J42)</f>
+        <f t="shared" ref="K42:K53" si="319">SUM(K41+J42)</f>
         <v>174</v>
       </c>
       <c r="L42" s="6">
         <v>3</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" ref="M42:M44" si="320">SUM(M41+L42)</f>
+        <f t="shared" ref="M42:M53" si="320">SUM(M41+L42)</f>
         <v>55</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" ref="O42:O44" si="321">SUM(O41+N42)</f>
+        <f t="shared" ref="O42:O53" si="321">SUM(O41+N42)</f>
         <v>40</v>
       </c>
       <c r="P42" s="6">
         <v>0</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" ref="Q42:Q44" si="322">SUM(Q41+P42)</f>
+        <f t="shared" ref="Q42:Q53" si="322">SUM(Q41+P42)</f>
         <v>10</v>
       </c>
       <c r="R42" s="3">
@@ -6476,49 +6476,49 @@
         <v>0</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" ref="U42:U44" si="324">SUM(U41+T42)</f>
+        <f t="shared" ref="U42:U53" si="324">SUM(U41+T42)</f>
         <v>90</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
       <c r="W42" s="5">
-        <f t="shared" ref="W42:W44" si="325">SUM(W41+V42)</f>
+        <f t="shared" ref="W42:W53" si="325">SUM(W41+V42)</f>
         <v>68</v>
       </c>
       <c r="X42" s="26">
         <v>2</v>
       </c>
       <c r="Y42" s="7">
-        <f t="shared" ref="Y42:Y44" si="326">SUM(Y41+X42)</f>
+        <f t="shared" ref="Y42:Y51" si="326">SUM(Y41+X42)</f>
         <v>11</v>
       </c>
       <c r="Z42" s="3">
         <v>24</v>
       </c>
       <c r="AA42" s="5">
-        <f t="shared" ref="AA42:AA44" si="327">SUM(AA41+Z42)</f>
+        <f t="shared" ref="AA42:AA53" si="327">SUM(AA41+Z42)</f>
         <v>280</v>
       </c>
       <c r="AB42" s="26">
         <v>2</v>
       </c>
       <c r="AC42" s="7">
-        <f t="shared" ref="AC42:AC44" si="328">SUM(AC41+AB42)</f>
+        <f t="shared" ref="AC42:AC53" si="328">SUM(AC41+AB42)</f>
         <v>91</v>
       </c>
       <c r="AD42" s="3">
         <v>14</v>
       </c>
       <c r="AE42" s="5">
-        <f t="shared" ref="AE42:AE44" si="329">SUM(AE41+AD42)</f>
+        <f t="shared" ref="AE42:AE53" si="329">SUM(AE41+AD42)</f>
         <v>173</v>
       </c>
       <c r="AF42" s="26">
         <v>0</v>
       </c>
       <c r="AG42" s="7">
-        <f t="shared" ref="AG42:AG44" si="330">SUM(AG41+AF42)</f>
+        <f t="shared" ref="AG42:AG53" si="330">SUM(AG41+AF42)</f>
         <v>13</v>
       </c>
       <c r="AH42" s="8">
@@ -6563,11 +6563,11 @@
         <v>31</v>
       </c>
       <c r="F43" s="3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G43" s="5">
         <f t="shared" si="317"/>
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
@@ -6662,11 +6662,11 @@
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="331"/>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AI43" s="5">
         <f t="shared" si="332"/>
-        <v>2580</v>
+        <v>2567</v>
       </c>
       <c r="AJ43" s="6">
         <f t="shared" si="333"/>
@@ -6702,11 +6702,11 @@
         <v>32</v>
       </c>
       <c r="F44" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="317"/>
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="H44" s="6">
         <v>0</v>
@@ -6801,11 +6801,11 @@
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="331"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI44" s="5">
         <f t="shared" si="332"/>
-        <v>2658</v>
+        <v>2644</v>
       </c>
       <c r="AJ44" s="6">
         <f t="shared" si="333"/>
@@ -6830,56 +6830,56 @@
         <v>1</v>
       </c>
       <c r="C45" s="5">
-        <f>SUM(C44+B45)</f>
+        <f t="shared" si="315"/>
         <v>410</v>
       </c>
       <c r="D45" s="6">
         <v>2</v>
       </c>
       <c r="E45" s="7">
-        <f>SUM(E44+D45)</f>
+        <f t="shared" si="316"/>
         <v>34</v>
       </c>
       <c r="F45" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G45" s="5">
-        <f>SUM(G44+F45)</f>
-        <v>251</v>
+        <f t="shared" si="317"/>
+        <v>240</v>
       </c>
       <c r="H45" s="6">
         <v>1</v>
       </c>
       <c r="I45" s="7">
-        <f>SUM(I44+H45)</f>
+        <f t="shared" si="318"/>
         <v>18</v>
       </c>
       <c r="J45" s="3">
         <v>2</v>
       </c>
       <c r="K45" s="5">
-        <f>SUM(K44+J45)</f>
+        <f t="shared" si="319"/>
         <v>186</v>
       </c>
       <c r="L45" s="6">
         <v>0</v>
       </c>
       <c r="M45" s="7">
-        <f>SUM(M44+L45)</f>
+        <f t="shared" si="320"/>
         <v>55</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="5">
-        <f>SUM(O44+N45)</f>
+        <f t="shared" si="321"/>
         <v>40</v>
       </c>
       <c r="P45" s="6">
         <v>0</v>
       </c>
       <c r="Q45" s="7">
-        <f>SUM(Q44+P45)</f>
+        <f t="shared" si="322"/>
         <v>10</v>
       </c>
       <c r="R45" s="3">
@@ -6893,65 +6893,65 @@
         <v>0</v>
       </c>
       <c r="U45" s="7">
-        <f>SUM(U44+T45)</f>
+        <f t="shared" si="324"/>
         <v>95</v>
       </c>
       <c r="V45" s="3">
         <v>2</v>
       </c>
       <c r="W45" s="5">
-        <f>SUM(W44+V45)</f>
+        <f t="shared" si="325"/>
         <v>81</v>
       </c>
       <c r="X45" s="26">
         <v>2</v>
       </c>
       <c r="Y45" s="7">
-        <f>SUM(Y44+X45)</f>
+        <f t="shared" si="326"/>
         <v>13</v>
       </c>
       <c r="Z45" s="3">
         <v>6</v>
       </c>
       <c r="AA45" s="5">
-        <f>SUM(AA44+Z45)</f>
+        <f t="shared" si="327"/>
         <v>299</v>
       </c>
       <c r="AB45" s="26">
         <v>0</v>
       </c>
       <c r="AC45" s="7">
-        <f>SUM(AC44+AB45)</f>
+        <f t="shared" si="328"/>
         <v>94</v>
       </c>
       <c r="AD45" s="3">
         <v>2</v>
       </c>
       <c r="AE45" s="5">
-        <f>SUM(AE44+AD45)</f>
+        <f t="shared" si="329"/>
         <v>206</v>
       </c>
       <c r="AF45" s="26">
         <v>0</v>
       </c>
       <c r="AG45" s="7">
-        <f>SUM(AG44+AF45)</f>
+        <f t="shared" si="330"/>
         <v>15</v>
       </c>
       <c r="AH45" s="8">
-        <f t="shared" ref="AH45" si="335">SUM(B45+F45+J45+N45+R45+V45+Z45+AD45)</f>
-        <v>26</v>
+        <f t="shared" ref="AH45:AH53" si="335">SUM(B45+F45+J45+N45+R45+V45+Z45+AD45)</f>
+        <v>29</v>
       </c>
       <c r="AI45" s="5">
         <f>SUM(AI44+AH45)</f>
-        <v>2684</v>
+        <v>2673</v>
       </c>
       <c r="AJ45" s="6">
         <f t="shared" ref="AJ45" si="336">SUM(D45+L45+P45+T45+X45+AB45+AF45)</f>
         <v>4</v>
       </c>
       <c r="AK45" s="7">
-        <f t="shared" ref="AK45" si="337">SUM(E45+I45+M45+Q45+U45+Y45+AC45+AG45)</f>
+        <f t="shared" ref="AK45:AK51" si="337">SUM(E45+I45+M45+Q45+U45+Y45+AC45+AG45)</f>
         <v>334</v>
       </c>
       <c r="AL45" s="28">
@@ -6969,128 +6969,128 @@
         <v>7</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" ref="C46" si="338">SUM(C45+B46)</f>
+        <f t="shared" si="315"/>
         <v>417</v>
       </c>
       <c r="D46" s="6">
         <v>2</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" ref="E46" si="339">SUM(E45+D46)</f>
+        <f t="shared" si="316"/>
         <v>36</v>
       </c>
       <c r="F46" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" ref="G46" si="340">SUM(G45+F46)</f>
-        <v>252</v>
+        <f t="shared" si="317"/>
+        <v>246</v>
       </c>
       <c r="H46" s="26">
         <v>0</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" ref="I46" si="341">SUM(I45+H46)</f>
+        <f t="shared" si="318"/>
         <v>18</v>
       </c>
       <c r="J46" s="3">
         <v>7</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" ref="K46" si="342">SUM(K45+J46)</f>
+        <f t="shared" si="319"/>
         <v>193</v>
       </c>
       <c r="L46" s="6">
         <v>1</v>
       </c>
       <c r="M46" s="7">
-        <f t="shared" ref="M46" si="343">SUM(M45+L46)</f>
+        <f t="shared" si="320"/>
         <v>56</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" ref="O46" si="344">SUM(O45+N46)</f>
+        <f t="shared" si="321"/>
         <v>40</v>
       </c>
       <c r="P46" s="6">
         <v>0</v>
       </c>
       <c r="Q46" s="7">
-        <f t="shared" ref="Q46" si="345">SUM(Q45+P46)</f>
+        <f t="shared" si="322"/>
         <v>10</v>
       </c>
       <c r="R46" s="3">
         <v>51</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" ref="S46" si="346">SUM(S45+R46)</f>
+        <f t="shared" ref="S46:S53" si="338">SUM(S45+R46)</f>
         <v>1262</v>
       </c>
       <c r="T46" s="6">
         <v>6</v>
       </c>
       <c r="U46" s="7">
-        <f t="shared" ref="U46" si="347">SUM(U45+T46)</f>
+        <f t="shared" si="324"/>
         <v>101</v>
       </c>
       <c r="V46" s="3">
         <v>4</v>
       </c>
       <c r="W46" s="5">
-        <f t="shared" ref="W46" si="348">SUM(W45+V46)</f>
+        <f t="shared" si="325"/>
         <v>85</v>
       </c>
       <c r="X46" s="26">
         <v>2</v>
       </c>
       <c r="Y46" s="7">
-        <f t="shared" ref="Y46" si="349">SUM(Y45+X46)</f>
+        <f t="shared" si="326"/>
         <v>15</v>
       </c>
       <c r="Z46" s="3">
         <v>2</v>
       </c>
       <c r="AA46" s="5">
-        <f t="shared" ref="AA46" si="350">SUM(AA45+Z46)</f>
+        <f t="shared" si="327"/>
         <v>301</v>
       </c>
       <c r="AB46" s="26">
         <v>-1</v>
       </c>
       <c r="AC46" s="7">
-        <f t="shared" ref="AC46" si="351">SUM(AC45+AB46)</f>
+        <f t="shared" si="328"/>
         <v>93</v>
       </c>
       <c r="AD46" s="3">
         <v>6</v>
       </c>
       <c r="AE46" s="5">
-        <f t="shared" ref="AE46" si="352">SUM(AE45+AD46)</f>
+        <f t="shared" si="329"/>
         <v>212</v>
       </c>
       <c r="AF46" s="26">
         <v>0</v>
       </c>
       <c r="AG46" s="7">
-        <f t="shared" ref="AG46" si="353">SUM(AG45+AF46)</f>
+        <f t="shared" si="330"/>
         <v>15</v>
       </c>
       <c r="AH46" s="8">
-        <f t="shared" ref="AH46" si="354">SUM(B46+F46+J46+N46+R46+V46+Z46+AD46)</f>
-        <v>78</v>
+        <f t="shared" si="335"/>
+        <v>83</v>
       </c>
       <c r="AI46" s="5">
-        <f t="shared" ref="AI46" si="355">SUM(AI45+AH46)</f>
-        <v>2762</v>
+        <f t="shared" ref="AI46:AI53" si="339">SUM(AI45+AH46)</f>
+        <v>2756</v>
       </c>
       <c r="AJ46" s="6">
-        <f t="shared" ref="AJ46" si="356">SUM(D46+L46+P46+T46+X46+AB46+AF46)</f>
+        <f t="shared" ref="AJ46" si="340">SUM(D46+L46+P46+T46+X46+AB46+AF46)</f>
         <v>10</v>
       </c>
       <c r="AK46" s="7">
-        <f t="shared" ref="AK46" si="357">SUM(E46+I46+M46+Q46+U46+Y46+AC46+AG46)</f>
+        <f t="shared" si="337"/>
         <v>344</v>
       </c>
       <c r="AL46" s="28">
@@ -7100,24 +7100,990 @@
         <v>615</v>
       </c>
     </row>
-    <row r="47" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="25">
+        <v>43937</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="315"/>
+        <v>418</v>
+      </c>
+      <c r="D47" s="6">
+        <v>5</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="316"/>
+        <v>41</v>
+      </c>
+      <c r="F47" s="3">
+        <v>7</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="317"/>
+        <v>253</v>
+      </c>
+      <c r="H47" s="26">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="318"/>
+        <v>18</v>
+      </c>
+      <c r="J47" s="3">
+        <v>21</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="319"/>
+        <v>214</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7">
+        <f t="shared" si="320"/>
+        <v>56</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="321"/>
+        <v>40</v>
+      </c>
+      <c r="P47" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="7">
+        <f t="shared" si="322"/>
+        <v>11</v>
+      </c>
+      <c r="R47" s="3">
+        <v>68</v>
+      </c>
+      <c r="S47" s="5">
+        <f t="shared" si="338"/>
+        <v>1330</v>
+      </c>
+      <c r="T47" s="6">
+        <v>29</v>
+      </c>
+      <c r="U47" s="7">
+        <f t="shared" si="324"/>
+        <v>130</v>
+      </c>
+      <c r="V47" s="3">
+        <v>4</v>
+      </c>
+      <c r="W47" s="5">
+        <f t="shared" si="325"/>
+        <v>89</v>
+      </c>
+      <c r="X47" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="7">
+        <f t="shared" si="326"/>
+        <v>15</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>17</v>
+      </c>
+      <c r="AA47" s="5">
+        <f t="shared" si="327"/>
+        <v>318</v>
+      </c>
+      <c r="AB47" s="26">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="7">
+        <f t="shared" si="328"/>
+        <v>97</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="5">
+        <f t="shared" si="329"/>
+        <v>213</v>
+      </c>
+      <c r="AF47" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="7">
+        <f t="shared" si="330"/>
+        <v>15</v>
+      </c>
+      <c r="AH47" s="8">
+        <f t="shared" si="335"/>
+        <v>119</v>
+      </c>
+      <c r="AI47" s="5">
+        <f t="shared" si="339"/>
+        <v>2875</v>
+      </c>
+      <c r="AJ47" s="6">
+        <f t="shared" ref="AJ47:AJ53" si="341">SUM(D47+L47+P47+T47+X47+AB47+AF47)</f>
+        <v>39</v>
+      </c>
+      <c r="AK47" s="7">
+        <f t="shared" si="337"/>
+        <v>383</v>
+      </c>
+      <c r="AL47" s="28">
+        <v>359</v>
+      </c>
+      <c r="AM47" s="30">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="25">
+        <v>43938</v>
+      </c>
+      <c r="B48" s="3">
+        <v>13</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="315"/>
+        <v>431</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" si="316"/>
+        <v>41</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="317"/>
+        <v>259</v>
+      </c>
+      <c r="H48" s="26">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" si="318"/>
+        <v>18</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5</v>
+      </c>
+      <c r="K48" s="5">
+        <f t="shared" si="319"/>
+        <v>219</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <f t="shared" si="320"/>
+        <v>56</v>
+      </c>
+      <c r="N48" s="3">
+        <v>3</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="321"/>
+        <v>43</v>
+      </c>
+      <c r="P48" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="7">
+        <f t="shared" si="322"/>
+        <v>11</v>
+      </c>
+      <c r="R48" s="3">
+        <v>104</v>
+      </c>
+      <c r="S48" s="5">
+        <f t="shared" si="338"/>
+        <v>1434</v>
+      </c>
+      <c r="T48" s="6">
+        <v>9</v>
+      </c>
+      <c r="U48" s="7">
+        <f t="shared" si="324"/>
+        <v>139</v>
+      </c>
+      <c r="V48" s="3">
+        <v>4</v>
+      </c>
+      <c r="W48" s="5">
+        <f t="shared" si="325"/>
+        <v>93</v>
+      </c>
+      <c r="X48" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="7">
+        <f t="shared" si="326"/>
+        <v>15</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="5">
+        <f t="shared" si="327"/>
+        <v>322</v>
+      </c>
+      <c r="AB48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="7">
+        <f t="shared" si="328"/>
+        <v>97</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE48" s="5">
+        <f t="shared" si="329"/>
+        <v>219</v>
+      </c>
+      <c r="AF48" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="7">
+        <f t="shared" si="330"/>
+        <v>15</v>
+      </c>
+      <c r="AH48" s="8">
+        <f t="shared" si="335"/>
+        <v>145</v>
+      </c>
+      <c r="AI48" s="5">
+        <f t="shared" si="339"/>
+        <v>3020</v>
+      </c>
+      <c r="AJ48" s="6">
+        <f t="shared" si="341"/>
+        <v>9</v>
+      </c>
+      <c r="AK48" s="7">
+        <f t="shared" si="337"/>
+        <v>392</v>
+      </c>
+      <c r="AL48" s="28">
+        <v>372</v>
+      </c>
+      <c r="AM48" s="30">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="25">
+        <v>43939</v>
+      </c>
+      <c r="B49" s="3">
+        <v>6</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="315"/>
+        <v>437</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="316"/>
+        <v>41</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="317"/>
+        <v>262</v>
+      </c>
+      <c r="H49" s="26">
+        <v>1</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="shared" si="318"/>
+        <v>19</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10</v>
+      </c>
+      <c r="K49" s="5">
+        <f t="shared" si="319"/>
+        <v>229</v>
+      </c>
+      <c r="L49" s="6">
+        <v>1</v>
+      </c>
+      <c r="M49" s="7">
+        <f t="shared" si="320"/>
+        <v>57</v>
+      </c>
+      <c r="N49" s="3">
+        <v>1</v>
+      </c>
+      <c r="O49" s="5">
+        <f t="shared" si="321"/>
+        <v>44</v>
+      </c>
+      <c r="P49" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="7">
+        <f t="shared" si="322"/>
+        <v>11</v>
+      </c>
+      <c r="R49" s="3">
+        <v>24</v>
+      </c>
+      <c r="S49" s="5">
+        <f t="shared" si="338"/>
+        <v>1458</v>
+      </c>
+      <c r="T49" s="6">
+        <v>9</v>
+      </c>
+      <c r="U49" s="7">
+        <f t="shared" si="324"/>
+        <v>148</v>
+      </c>
+      <c r="V49" s="3">
+        <v>11</v>
+      </c>
+      <c r="W49" s="5">
+        <f t="shared" si="325"/>
+        <v>104</v>
+      </c>
+      <c r="X49" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="7">
+        <f t="shared" si="326"/>
+        <v>15</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>35</v>
+      </c>
+      <c r="AA49" s="5">
+        <f t="shared" si="327"/>
+        <v>357</v>
+      </c>
+      <c r="AB49" s="26">
+        <v>3</v>
+      </c>
+      <c r="AC49" s="7">
+        <f t="shared" si="328"/>
+        <v>100</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>21</v>
+      </c>
+      <c r="AE49" s="5">
+        <f t="shared" si="329"/>
+        <v>240</v>
+      </c>
+      <c r="AF49" s="26">
+        <v>3</v>
+      </c>
+      <c r="AG49" s="7">
+        <f t="shared" si="330"/>
+        <v>18</v>
+      </c>
+      <c r="AH49" s="8">
+        <f t="shared" si="335"/>
+        <v>111</v>
+      </c>
+      <c r="AI49" s="5">
+        <f t="shared" si="339"/>
+        <v>3131</v>
+      </c>
+      <c r="AJ49" s="6">
+        <f t="shared" si="341"/>
+        <v>16</v>
+      </c>
+      <c r="AK49" s="7">
+        <f t="shared" si="337"/>
+        <v>409</v>
+      </c>
+      <c r="AL49" s="28">
+        <v>380</v>
+      </c>
+      <c r="AM49" s="30">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="25">
+        <v>43940</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="315"/>
+        <v>437</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7">
+        <f t="shared" si="316"/>
+        <v>41</v>
+      </c>
+      <c r="F50" s="3">
+        <v>31</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="317"/>
+        <v>293</v>
+      </c>
+      <c r="H50" s="26">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" si="318"/>
+        <v>19</v>
+      </c>
+      <c r="J50" s="3">
+        <v>7</v>
+      </c>
+      <c r="K50" s="5">
+        <f t="shared" si="319"/>
+        <v>236</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <f t="shared" si="320"/>
+        <v>57</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="321"/>
+        <v>44</v>
+      </c>
+      <c r="P50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="7">
+        <f t="shared" si="322"/>
+        <v>11</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="5">
+        <f t="shared" si="338"/>
+        <v>1458</v>
+      </c>
+      <c r="T50" s="6">
+        <v>14</v>
+      </c>
+      <c r="U50" s="7">
+        <f t="shared" si="324"/>
+        <v>162</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="5">
+        <f t="shared" si="325"/>
+        <v>104</v>
+      </c>
+      <c r="X50" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="7">
+        <f t="shared" si="326"/>
+        <v>15</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>23</v>
+      </c>
+      <c r="AA50" s="5">
+        <f t="shared" si="327"/>
+        <v>380</v>
+      </c>
+      <c r="AB50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="7">
+        <f t="shared" si="328"/>
+        <v>100</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="5">
+        <f t="shared" si="329"/>
+        <v>240</v>
+      </c>
+      <c r="AF50" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="7">
+        <f t="shared" si="330"/>
+        <v>18</v>
+      </c>
+      <c r="AH50" s="8">
+        <f t="shared" si="335"/>
+        <v>61</v>
+      </c>
+      <c r="AI50" s="5">
+        <f t="shared" si="339"/>
+        <v>3192</v>
+      </c>
+      <c r="AJ50" s="6">
+        <f t="shared" si="341"/>
+        <v>14</v>
+      </c>
+      <c r="AK50" s="7">
+        <f t="shared" si="337"/>
+        <v>423</v>
+      </c>
+      <c r="AL50" s="28">
+        <v>384</v>
+      </c>
+      <c r="AM50" s="30">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="25">
+        <v>43941</v>
+      </c>
+      <c r="B51" s="3">
+        <v>4</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="315"/>
+        <v>441</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="316"/>
+        <v>42</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="317"/>
+        <v>295</v>
+      </c>
+      <c r="H51" s="26">
+        <v>5</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" si="318"/>
+        <v>24</v>
+      </c>
+      <c r="J51" s="3">
+        <v>7</v>
+      </c>
+      <c r="K51" s="5">
+        <f t="shared" si="319"/>
+        <v>243</v>
+      </c>
+      <c r="L51" s="6">
+        <v>3</v>
+      </c>
+      <c r="M51" s="7">
+        <f t="shared" si="320"/>
+        <v>60</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="321"/>
+        <v>44</v>
+      </c>
+      <c r="P51" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="7">
+        <f t="shared" si="322"/>
+        <v>11</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="5">
+        <f t="shared" si="338"/>
+        <v>1458</v>
+      </c>
+      <c r="T51" s="6">
+        <v>0</v>
+      </c>
+      <c r="U51" s="7">
+        <f t="shared" si="324"/>
+        <v>162</v>
+      </c>
+      <c r="V51" s="3">
+        <v>10</v>
+      </c>
+      <c r="W51" s="5">
+        <f t="shared" si="325"/>
+        <v>114</v>
+      </c>
+      <c r="X51" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="7">
+        <f t="shared" si="326"/>
+        <v>15</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>26</v>
+      </c>
+      <c r="AA51" s="5">
+        <f t="shared" si="327"/>
+        <v>406</v>
+      </c>
+      <c r="AB51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="7">
+        <f t="shared" si="328"/>
+        <v>100</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="5">
+        <f t="shared" si="329"/>
+        <v>241</v>
+      </c>
+      <c r="AF51" s="26">
+        <v>2</v>
+      </c>
+      <c r="AG51" s="7">
+        <f t="shared" si="330"/>
+        <v>20</v>
+      </c>
+      <c r="AH51" s="8">
+        <f t="shared" si="335"/>
+        <v>50</v>
+      </c>
+      <c r="AI51" s="5">
+        <f t="shared" si="339"/>
+        <v>3242</v>
+      </c>
+      <c r="AJ51" s="6">
+        <f t="shared" si="341"/>
+        <v>6</v>
+      </c>
+      <c r="AK51" s="7">
+        <f t="shared" si="337"/>
+        <v>434</v>
+      </c>
+      <c r="AL51" s="28">
+        <v>389</v>
+      </c>
+      <c r="AM51" s="30">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="25">
+        <v>43942</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="315"/>
+        <v>443</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" si="316"/>
+        <v>43</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="317"/>
+        <v>295</v>
+      </c>
+      <c r="H52" s="26">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <f t="shared" si="318"/>
+        <v>24</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5">
+        <f t="shared" si="319"/>
+        <v>244</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7">
+        <f t="shared" si="320"/>
+        <v>60</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="5">
+        <f t="shared" si="321"/>
+        <v>44</v>
+      </c>
+      <c r="P52" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7">
+        <f t="shared" si="322"/>
+        <v>11</v>
+      </c>
+      <c r="R52" s="3">
+        <v>19</v>
+      </c>
+      <c r="S52" s="5">
+        <f t="shared" si="338"/>
+        <v>1477</v>
+      </c>
+      <c r="T52" s="6">
+        <v>2</v>
+      </c>
+      <c r="U52" s="7">
+        <f t="shared" si="324"/>
+        <v>164</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="5">
+        <f t="shared" si="325"/>
+        <v>114</v>
+      </c>
+      <c r="X52" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="7">
+        <f>SUM(Y51+X52)</f>
+        <v>15</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA52" s="5">
+        <f t="shared" si="327"/>
+        <v>410</v>
+      </c>
+      <c r="AB52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="7">
+        <f t="shared" si="328"/>
+        <v>100</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="5">
+        <f t="shared" si="329"/>
+        <v>242</v>
+      </c>
+      <c r="AF52" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="7">
+        <f t="shared" si="330"/>
+        <v>20</v>
+      </c>
+      <c r="AH52" s="8">
+        <f t="shared" si="335"/>
+        <v>27</v>
+      </c>
+      <c r="AI52" s="5">
+        <f t="shared" si="339"/>
+        <v>3269</v>
+      </c>
+      <c r="AJ52" s="6">
+        <f t="shared" si="341"/>
+        <v>3</v>
+      </c>
+      <c r="AK52" s="7">
+        <f>SUM(E52+I52+M52+Q52+U52+Y52+AC52+AG52)</f>
+        <v>437</v>
+      </c>
+      <c r="AL52" s="28">
+        <v>397</v>
+      </c>
+      <c r="AM52" s="30">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="25">
+        <v>43943</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="315"/>
+        <v>443</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7">
+        <f t="shared" si="316"/>
+        <v>43</v>
+      </c>
+      <c r="F53" s="3">
+        <v>4</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="317"/>
+        <v>299</v>
+      </c>
+      <c r="H53" s="26">
+        <v>3</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" si="318"/>
+        <v>27</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="5">
+        <f t="shared" si="319"/>
+        <v>244</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7">
+        <f t="shared" si="320"/>
+        <v>60</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1</v>
+      </c>
+      <c r="O53" s="5">
+        <f t="shared" si="321"/>
+        <v>45</v>
+      </c>
+      <c r="P53" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="7">
+        <f t="shared" si="322"/>
+        <v>11</v>
+      </c>
+      <c r="R53" s="3">
+        <v>26</v>
+      </c>
+      <c r="S53" s="5">
+        <f t="shared" si="338"/>
+        <v>1503</v>
+      </c>
+      <c r="T53" s="6">
+        <v>4</v>
+      </c>
+      <c r="U53" s="7">
+        <f t="shared" si="324"/>
+        <v>168</v>
+      </c>
+      <c r="V53" s="3">
+        <v>3</v>
+      </c>
+      <c r="W53" s="5">
+        <f t="shared" si="325"/>
+        <v>117</v>
+      </c>
+      <c r="X53" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="7">
+        <f>SUM(Y52+X53)</f>
+        <v>16</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>13</v>
+      </c>
+      <c r="AA53" s="5">
+        <f t="shared" si="327"/>
+        <v>423</v>
+      </c>
+      <c r="AB53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="7">
+        <f t="shared" si="328"/>
+        <v>100</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="5">
+        <f t="shared" si="329"/>
+        <v>242</v>
+      </c>
+      <c r="AF53" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="7">
+        <f t="shared" si="330"/>
+        <v>20</v>
+      </c>
+      <c r="AH53" s="8">
+        <f t="shared" si="335"/>
+        <v>47</v>
+      </c>
+      <c r="AI53" s="5">
+        <f t="shared" si="339"/>
+        <v>3316</v>
+      </c>
+      <c r="AJ53" s="6">
+        <f t="shared" si="341"/>
+        <v>5</v>
+      </c>
+      <c r="AK53" s="7">
+        <f>SUM(E53+I53+M53+Q53+U53+Y53+AC53+AG53)</f>
+        <v>445</v>
+      </c>
+      <c r="AL53" s="28">
+        <v>404</v>
+      </c>
+      <c r="AM53" s="30">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="65" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="66" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="67" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
